--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_동해선.xlsx
@@ -42,19 +42,16 @@
     <t>MedAPE</t>
   </si>
   <si>
-    <t>NBEATSx</t>
-  </si>
-  <si>
     <t>NBEATS</t>
   </si>
   <si>
     <t>TiDE</t>
   </si>
   <si>
-    <t>NHITS</t>
+    <t>NBEATSx</t>
   </si>
   <si>
-    <t>MLP</t>
+    <t>NHITS</t>
   </si>
   <si>
     <t>TCN</t>
@@ -63,10 +60,10 @@
     <t>DilatedRNN</t>
   </si>
   <si>
-    <t>GRU</t>
+    <t>LSTM</t>
   </si>
   <si>
-    <t>LSTM</t>
+    <t>GRU</t>
   </si>
   <si>
     <t>RNN</t>
@@ -75,13 +72,16 @@
     <t>LightGBM</t>
   </si>
   <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
     <t>CatBoost</t>
   </si>
   <si>
-    <t>RandomForest</t>
+    <t>XGBoost</t>
   </si>
   <si>
-    <t>XGBoost</t>
+    <t>MLP</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -488,25 +488,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>38392804685.70126</v>
+        <v>39330184607.8877</v>
       </c>
       <c r="C2">
-        <v>195940.8193452841</v>
+        <v>198318.3920061064</v>
       </c>
       <c r="D2">
-        <v>0.02815629231563356</v>
+        <v>0.02911834938754192</v>
       </c>
       <c r="E2">
-        <v>80247.8984375</v>
+        <v>85233.15104166667</v>
       </c>
       <c r="F2">
-        <v>0.08763008585456881</v>
+        <v>0.09537967922567997</v>
       </c>
       <c r="G2">
-        <v>26853.375</v>
+        <v>29818.9375</v>
       </c>
       <c r="H2">
-        <v>0.04808569756410104</v>
+        <v>0.05183433487813584</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>39330184607.8877</v>
+        <v>50386138682.41293</v>
       </c>
       <c r="C3">
-        <v>198318.3920061064</v>
+        <v>224468.5694755792</v>
       </c>
       <c r="D3">
-        <v>0.02911834938754192</v>
+        <v>0.07232039953869095</v>
       </c>
       <c r="E3">
-        <v>85233.15104166667</v>
+        <v>146556.0104166667</v>
       </c>
       <c r="F3">
-        <v>0.09537967922567997</v>
+        <v>0.2045734731682338</v>
       </c>
       <c r="G3">
-        <v>29818.9375</v>
+        <v>79110.5625</v>
       </c>
       <c r="H3">
-        <v>0.05183433487813584</v>
+        <v>0.1359810736918234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>50305053483.60205</v>
+        <v>64564909440.54159</v>
       </c>
       <c r="C4">
-        <v>224287.8808219518</v>
+        <v>254096.2601860594</v>
       </c>
       <c r="D4">
-        <v>0.07225120000161139</v>
+        <v>0.08301752578503915</v>
       </c>
       <c r="E4">
-        <v>146470.1354166667</v>
+        <v>183226.6432291667</v>
       </c>
       <c r="F4">
-        <v>0.2044821282260724</v>
+        <v>0.2589833949984175</v>
       </c>
       <c r="G4">
-        <v>79110.609375</v>
+        <v>144128.828125</v>
       </c>
       <c r="H4">
-        <v>0.1359810971116396</v>
+        <v>0.2464678285069944</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>61111472616.13477</v>
+        <v>184394821666.8695</v>
       </c>
       <c r="C5">
-        <v>247207.3474153524</v>
+        <v>429412.1815538883</v>
       </c>
       <c r="D5">
-        <v>0.1320780562613063</v>
+        <v>0.5112416288726963</v>
       </c>
       <c r="E5">
-        <v>188404.5104166667</v>
+        <v>332621.0260416667</v>
       </c>
       <c r="F5">
-        <v>0.2886064718717163</v>
+        <v>0.5396655354407675</v>
       </c>
       <c r="G5">
-        <v>144237.1875</v>
+        <v>229409.125</v>
       </c>
       <c r="H5">
-        <v>0.2525296635644851</v>
+        <v>0.3797744279842282</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>275298070229.7661</v>
+        <v>177115209766.8254</v>
       </c>
       <c r="C6">
-        <v>524688.5459296459</v>
+        <v>420850.5789075565</v>
       </c>
       <c r="D6">
-        <v>0.8123085114587872</v>
+        <v>0.3736964488448751</v>
       </c>
       <c r="E6">
-        <v>377569.8974609375</v>
+        <v>388553.6041666667</v>
       </c>
       <c r="F6">
-        <v>0.6390541305635379</v>
+        <v>0.6034953646831956</v>
       </c>
       <c r="G6">
-        <v>195157.171875</v>
+        <v>362954.1953125</v>
       </c>
       <c r="H6">
-        <v>0.3441138938317752</v>
+        <v>0.6277843741018562</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>147075565406.881</v>
+        <v>205124370515.2877</v>
       </c>
       <c r="C7">
-        <v>383504.3225400217</v>
+        <v>452906.5803400163</v>
       </c>
       <c r="D7">
-        <v>0.2793319711411316</v>
+        <v>0.4103322039463957</v>
       </c>
       <c r="E7">
-        <v>338777.7864583333</v>
+        <v>403283.7141927083</v>
       </c>
       <c r="F7">
-        <v>0.5161401398185298</v>
+        <v>0.619178785235035</v>
       </c>
       <c r="G7">
-        <v>299953.65625</v>
+        <v>366306.078125</v>
       </c>
       <c r="H7">
-        <v>0.5230226812631187</v>
+        <v>0.6250546662798209</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>195052485907.1792</v>
+        <v>242104244523.8453</v>
       </c>
       <c r="C8">
-        <v>441647.4679053184</v>
+        <v>492040.8972065689</v>
       </c>
       <c r="D8">
-        <v>0.4476336301790549</v>
+        <v>0.4670581976608575</v>
       </c>
       <c r="E8">
-        <v>415658.3059895833</v>
+        <v>437343.837890625</v>
       </c>
       <c r="F8">
-        <v>0.6545575873806219</v>
+        <v>0.6684717680245619</v>
       </c>
       <c r="G8">
-        <v>400872.6640625</v>
+        <v>371444.8125</v>
       </c>
       <c r="H8">
-        <v>0.6523655295798398</v>
+        <v>0.6318759284521405</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>290345653058.0341</v>
+        <v>225945324315.018</v>
       </c>
       <c r="C9">
-        <v>538837.3159479902</v>
+        <v>475337.0638978387</v>
       </c>
       <c r="D9">
-        <v>0.6802717802670336</v>
+        <v>0.4642033229970167</v>
       </c>
       <c r="E9">
-        <v>513355.6139322917</v>
+        <v>429214.0501302083</v>
       </c>
       <c r="F9">
-        <v>0.8125179592372275</v>
+        <v>0.6621647348602453</v>
       </c>
       <c r="G9">
-        <v>496781.390625</v>
+        <v>378447.1796875</v>
       </c>
       <c r="H9">
-        <v>0.8267549455041837</v>
+        <v>0.6772943085089387</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>278600681884.8311</v>
+        <v>237215659254.8062</v>
       </c>
       <c r="C10">
-        <v>527826.37475294</v>
+        <v>487047.9024231664</v>
       </c>
       <c r="D10">
-        <v>0.6642115840434499</v>
+        <v>0.4841771184406696</v>
       </c>
       <c r="E10">
-        <v>504023.150390625</v>
+        <v>438942.1640625</v>
       </c>
       <c r="F10">
-        <v>0.8003139042495476</v>
+        <v>0.6763628784002426</v>
       </c>
       <c r="G10">
-        <v>510146.7578125</v>
+        <v>394101.2109375</v>
       </c>
       <c r="H10">
-        <v>0.8748324018826648</v>
+        <v>0.683104441515148</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>326192451721.4627</v>
+        <v>349904030529.6813</v>
       </c>
       <c r="C11">
-        <v>571132.6043236043</v>
+        <v>591526.8637430436</v>
       </c>
       <c r="D11">
-        <v>0.7706636288823963</v>
+        <v>0.7764349202769202</v>
       </c>
       <c r="E11">
-        <v>545367.3130493164</v>
+        <v>560461.4090092985</v>
       </c>
       <c r="F11">
-        <v>0.8646610014748733</v>
+        <v>0.879899642768132</v>
       </c>
       <c r="G11">
-        <v>548760.7353515625</v>
+        <v>502215.8513828649</v>
       </c>
       <c r="H11">
-        <v>0.9349539936670048</v>
+        <v>0.8812437871022509</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>422489525917.5325</v>
+        <v>369460477947.7816</v>
       </c>
       <c r="C12">
-        <v>649991.9429635513</v>
+        <v>607832.6068481202</v>
       </c>
       <c r="D12">
-        <v>0.9795582430848725</v>
+        <v>0.8202166794191355</v>
       </c>
       <c r="E12">
-        <v>625278.6283308036</v>
+        <v>574698.7453770877</v>
       </c>
       <c r="F12">
-        <v>0.989702378274279</v>
+        <v>0.9022712437673563</v>
       </c>
       <c r="G12">
-        <v>576342.5261320889</v>
+        <v>518447.4204761905</v>
       </c>
       <c r="H12">
-        <v>0.9897842513621711</v>
+        <v>0.9155854215216976</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>430274106863.0969</v>
+        <v>384393911209.5518</v>
       </c>
       <c r="C13">
-        <v>655952.8236566231</v>
+        <v>619995.0896656777</v>
       </c>
       <c r="D13">
-        <v>0.9995289568024247</v>
+        <v>0.8642880443345694</v>
       </c>
       <c r="E13">
-        <v>631405.8326428835</v>
+        <v>588504.8130047162</v>
       </c>
       <c r="F13">
-        <v>0.9997640246212409</v>
+        <v>0.9260834462793514</v>
       </c>
       <c r="G13">
-        <v>579426.0884777359</v>
+        <v>554188.9138179324</v>
       </c>
       <c r="H13">
-        <v>0.9999861353291197</v>
+        <v>0.9778856200366639</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>430433207564</v>
+        <v>382954017578.5969</v>
       </c>
       <c r="C14">
-        <v>656074.0869475032</v>
+        <v>618832.7864444457</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.8608806863144346</v>
       </c>
       <c r="E14">
-        <v>631541.8333333334</v>
+        <v>586028.4171158335</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.9221501460357713</v>
       </c>
       <c r="G14">
-        <v>579940</v>
+        <v>558764.8559500657</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.9999997215407506</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>430433207582.0893</v>
+        <v>1040035274649.868</v>
       </c>
       <c r="C15">
-        <v>656074.0869612892</v>
+        <v>1019821.197391909</v>
       </c>
       <c r="D15">
-        <v>1.000000000047412</v>
+        <v>2.74871642539481</v>
       </c>
       <c r="E15">
-        <v>631541.833347655</v>
+        <v>884586.2708333334</v>
       </c>
       <c r="F15">
-        <v>1.000000000023706</v>
+        <v>1.42832951864766</v>
       </c>
       <c r="G15">
-        <v>579940.0000143215</v>
+        <v>937040.765625</v>
       </c>
       <c r="H15">
-        <v>1.000000000024695</v>
+        <v>1.34587584199556</v>
       </c>
     </row>
   </sheetData>
@@ -924,46 +924,46 @@
         <v>565822</v>
       </c>
       <c r="D2">
-        <v>571227.6875</v>
+        <v>547445.75</v>
       </c>
       <c r="E2">
-        <v>547445.75</v>
+        <v>583123.0625</v>
       </c>
       <c r="F2">
-        <v>583123.0625</v>
+        <v>471520.71875</v>
       </c>
       <c r="G2">
-        <v>652890.25</v>
+        <v>780648.6875</v>
       </c>
       <c r="H2">
-        <v>571843.1875</v>
+        <v>278437.46875</v>
       </c>
       <c r="I2">
-        <v>202360.015625</v>
+        <v>95282.0546875</v>
       </c>
       <c r="J2">
-        <v>330983.6875</v>
+        <v>150097.78125</v>
       </c>
       <c r="K2">
-        <v>264741.625</v>
+        <v>153354.53125</v>
       </c>
       <c r="L2">
-        <v>298520.1875</v>
+        <v>104271.953125</v>
       </c>
       <c r="M2">
-        <v>284201.40625</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="N2">
-        <v>2340.012610637869</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="O2">
-        <v>-195.9848612280039</v>
+        <v>85185.68966818415</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>85453.6015625</v>
       </c>
       <c r="Q2">
-        <v>-1.432156204828061E-05</v>
+        <v>-266941.78125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -977,46 +977,46 @@
         <v>1218256</v>
       </c>
       <c r="D3">
-        <v>548698</v>
+        <v>541959.25</v>
       </c>
       <c r="E3">
-        <v>541959.25</v>
+        <v>583889.5625</v>
       </c>
       <c r="F3">
-        <v>584595.6875</v>
+        <v>465927.6875</v>
       </c>
       <c r="G3">
-        <v>700595</v>
+        <v>755468.5625</v>
       </c>
       <c r="H3">
-        <v>1060968.75</v>
+        <v>327245.71875</v>
       </c>
       <c r="I3">
-        <v>312965.15625</v>
+        <v>198414.125</v>
       </c>
       <c r="J3">
-        <v>401958.65625</v>
+        <v>71838.3984375</v>
       </c>
       <c r="K3">
-        <v>248367.5</v>
+        <v>183737.953125</v>
       </c>
       <c r="L3">
-        <v>299616.5625</v>
+        <v>150440.84375</v>
       </c>
       <c r="M3">
-        <v>203868.953125</v>
+        <v>36513.67644318343</v>
       </c>
       <c r="N3">
-        <v>7014.271926766809</v>
+        <v>2711.005</v>
       </c>
       <c r="O3">
-        <v>47.4157688960986</v>
+        <v>586.7823860791977</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01149096619337797</v>
       </c>
       <c r="Q3">
-        <v>-1.432156204828061E-05</v>
+        <v>-267985.53125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1030,46 +1030,46 @@
         <v>567550</v>
       </c>
       <c r="D4">
-        <v>541242.875</v>
+        <v>538011.375</v>
       </c>
       <c r="E4">
-        <v>538011.375</v>
+        <v>498775.09375</v>
       </c>
       <c r="F4">
-        <v>498774.875</v>
+        <v>472111.46875</v>
       </c>
       <c r="G4">
-        <v>771250.75</v>
+        <v>652179.625</v>
       </c>
       <c r="H4">
-        <v>1082025.625</v>
+        <v>279173.75</v>
       </c>
       <c r="I4">
-        <v>276197.4375</v>
+        <v>257034.375</v>
       </c>
       <c r="J4">
-        <v>307461.15625</v>
+        <v>232892.5</v>
       </c>
       <c r="K4">
-        <v>228285.375</v>
+        <v>183227.5</v>
       </c>
       <c r="L4">
-        <v>236387.671875</v>
+        <v>196987.609375</v>
       </c>
       <c r="M4">
-        <v>192487.796875</v>
+        <v>68417.87894695351</v>
       </c>
       <c r="N4">
-        <v>11122.0198254827</v>
+        <v>13208.48988797314</v>
       </c>
       <c r="O4">
-        <v>48.71468443283811</v>
+        <v>7864.214931780996</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2878141701221466</v>
       </c>
       <c r="Q4">
-        <v>-1.432156204828061E-05</v>
+        <v>1804301.125</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1083,46 +1083,46 @@
         <v>570404</v>
       </c>
       <c r="D5">
-        <v>563428.75</v>
+        <v>548922.8125</v>
       </c>
       <c r="E5">
-        <v>548922.8125</v>
+        <v>564351</v>
       </c>
       <c r="F5">
-        <v>563220.0625</v>
+        <v>499529.75</v>
       </c>
       <c r="G5">
-        <v>774604.75</v>
+        <v>648207.25</v>
       </c>
       <c r="H5">
-        <v>665716.625</v>
+        <v>297036</v>
       </c>
       <c r="I5">
-        <v>322751.875</v>
+        <v>220554.015625</v>
       </c>
       <c r="J5">
-        <v>283973.5625</v>
+        <v>209404.53125</v>
       </c>
       <c r="K5">
-        <v>181605.59375</v>
+        <v>204308.234375</v>
       </c>
       <c r="L5">
-        <v>211761.109375</v>
+        <v>184601.515625</v>
       </c>
       <c r="M5">
-        <v>148789.25</v>
+        <v>66716.11045209928</v>
       </c>
       <c r="N5">
-        <v>11864.66813819533</v>
+        <v>20232.53468542569</v>
       </c>
       <c r="O5">
-        <v>184.4020154230529</v>
+        <v>2180.717223576677</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.02840705774724483</v>
       </c>
       <c r="Q5">
-        <v>-1.432156204828061E-05</v>
+        <v>1611721.75</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1136,46 +1136,46 @@
         <v>582320</v>
       </c>
       <c r="D6">
-        <v>592145.5625</v>
+        <v>542314.125</v>
       </c>
       <c r="E6">
-        <v>542314.125</v>
+        <v>549726.9375</v>
       </c>
       <c r="F6">
-        <v>551182.3125</v>
+        <v>437291.375</v>
       </c>
       <c r="G6">
-        <v>738062.5625</v>
+        <v>529048.625</v>
       </c>
       <c r="H6">
-        <v>369796.15625</v>
+        <v>307490.03125</v>
       </c>
       <c r="I6">
-        <v>335891.78125</v>
+        <v>211514.84375</v>
       </c>
       <c r="J6">
-        <v>246346.046875</v>
+        <v>154303.265625</v>
       </c>
       <c r="K6">
-        <v>130363.1484375</v>
+        <v>241637.65625</v>
       </c>
       <c r="L6">
-        <v>133468.015625</v>
+        <v>179920.0625</v>
       </c>
       <c r="M6">
-        <v>85298.2734375</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="N6">
-        <v>6448.721808174203</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="O6">
-        <v>7.905951529901358</v>
+        <v>85836.10113750568</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>85986.7890625</v>
       </c>
       <c r="Q6">
-        <v>-1.432156204828061E-05</v>
+        <v>953913.5625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1189,46 +1189,46 @@
         <v>549980</v>
       </c>
       <c r="D7">
-        <v>522580.375</v>
+        <v>546989</v>
       </c>
       <c r="E7">
-        <v>546989</v>
+        <v>452672.0625</v>
       </c>
       <c r="F7">
-        <v>452672.03125</v>
+        <v>479187.03125</v>
       </c>
       <c r="G7">
-        <v>664585.4375</v>
+        <v>623491.75</v>
       </c>
       <c r="H7">
-        <v>372189.5</v>
+        <v>257632.9375</v>
       </c>
       <c r="I7">
-        <v>353651.375</v>
+        <v>183690.484375</v>
       </c>
       <c r="J7">
-        <v>200920.328125</v>
+        <v>203015.203125</v>
       </c>
       <c r="K7">
-        <v>108300.6484375</v>
+        <v>177408.140625</v>
       </c>
       <c r="L7">
-        <v>72514.75</v>
+        <v>191549.671875</v>
       </c>
       <c r="M7">
-        <v>37581.546875</v>
+        <v>78703.72051319062</v>
       </c>
       <c r="N7">
-        <v>2849.866682078066</v>
+        <v>38097.4</v>
       </c>
       <c r="O7">
-        <v>389.9059243997181</v>
+        <v>1287.957432354408</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.0002856984792742878</v>
       </c>
       <c r="Q7">
-        <v>-1.432156204828061E-05</v>
+        <v>1756171.875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1242,46 +1242,46 @@
         <v>605377</v>
       </c>
       <c r="D8">
-        <v>543600.375</v>
+        <v>544951.25</v>
       </c>
       <c r="E8">
-        <v>544951.25</v>
+        <v>523836.125</v>
       </c>
       <c r="F8">
-        <v>523835.25</v>
+        <v>472001.5</v>
       </c>
       <c r="G8">
-        <v>561218.1875</v>
+        <v>712238.125</v>
       </c>
       <c r="H8">
-        <v>446814.5625</v>
+        <v>207500.625</v>
       </c>
       <c r="I8">
-        <v>313132.4375</v>
+        <v>148488.875</v>
       </c>
       <c r="J8">
-        <v>154550.09375</v>
+        <v>146657.640625</v>
       </c>
       <c r="K8">
-        <v>90547.859375</v>
+        <v>144947.421875</v>
       </c>
       <c r="L8">
-        <v>64294.77734375</v>
+        <v>79343.640625</v>
       </c>
       <c r="M8">
-        <v>37387.74609375</v>
+        <v>133090.183268032</v>
       </c>
       <c r="N8">
-        <v>12760.95694110772</v>
+        <v>157078.2046467976</v>
       </c>
       <c r="O8">
-        <v>-520.550664865892</v>
+        <v>138365.2148227787</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>197665.140625</v>
       </c>
       <c r="Q8">
-        <v>-1.432156204828061E-05</v>
+        <v>2056390.875</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1295,46 +1295,46 @@
         <v>587287</v>
       </c>
       <c r="D9">
-        <v>598182.8125</v>
+        <v>547077.875</v>
       </c>
       <c r="E9">
-        <v>547077.875</v>
+        <v>631631.625</v>
       </c>
       <c r="F9">
-        <v>631631.25</v>
+        <v>444057.96875</v>
       </c>
       <c r="G9">
-        <v>564456.8125</v>
+        <v>831278.5625</v>
       </c>
       <c r="H9">
-        <v>46955.765625</v>
+        <v>215640.078125</v>
       </c>
       <c r="I9">
-        <v>239631.75</v>
+        <v>133050.234375</v>
       </c>
       <c r="J9">
-        <v>133788.40625</v>
+        <v>68941.6875</v>
       </c>
       <c r="K9">
-        <v>11243.4755859375</v>
+        <v>31995.5703125</v>
       </c>
       <c r="L9">
-        <v>25458.728515625</v>
+        <v>85942.796875</v>
       </c>
       <c r="M9">
-        <v>3585.3984375</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="N9">
-        <v>7360.886983713173</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="O9">
-        <v>-88.63639154953125</v>
+        <v>91122.8238470458</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>91068.34375</v>
       </c>
       <c r="Q9">
-        <v>-1.432156204828061E-05</v>
+        <v>972678.875</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1348,46 +1348,46 @@
         <v>612267</v>
       </c>
       <c r="D10">
-        <v>569279.5625</v>
+        <v>547111.0625</v>
       </c>
       <c r="E10">
-        <v>547111.0625</v>
+        <v>447059.90625</v>
       </c>
       <c r="F10">
-        <v>447060.4375</v>
+        <v>440442.28125</v>
       </c>
       <c r="G10">
-        <v>611747.125</v>
+        <v>1054554</v>
       </c>
       <c r="H10">
-        <v>45097.87109375</v>
+        <v>230978.453125</v>
       </c>
       <c r="I10">
-        <v>267401.3125</v>
+        <v>245944.359375</v>
       </c>
       <c r="J10">
-        <v>96525.96875</v>
+        <v>230376.84375</v>
       </c>
       <c r="K10">
-        <v>46854.5546875</v>
+        <v>156798.484375</v>
       </c>
       <c r="L10">
-        <v>51508.6484375</v>
+        <v>189899.625</v>
       </c>
       <c r="M10">
-        <v>6244.1748046875</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="N10">
-        <v>746.2259276480847</v>
+        <v>11982.6775</v>
       </c>
       <c r="O10">
-        <v>-17.89313769666478</v>
+        <v>234.8591650852031</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.001340088085271418</v>
       </c>
       <c r="Q10">
-        <v>-1.432156204828061E-05</v>
+        <v>1055295.25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1401,46 +1401,46 @@
         <v>558618</v>
       </c>
       <c r="D11">
-        <v>566796.9375</v>
+        <v>548290.5</v>
       </c>
       <c r="E11">
-        <v>548290.5</v>
+        <v>481937.75</v>
       </c>
       <c r="F11">
-        <v>481938.53125</v>
+        <v>412644.4375</v>
       </c>
       <c r="G11">
-        <v>691349.8125</v>
+        <v>1250652.375</v>
       </c>
       <c r="H11">
-        <v>-159597.5</v>
+        <v>204356.53125</v>
       </c>
       <c r="I11">
-        <v>373103.21875</v>
+        <v>410084.09375</v>
       </c>
       <c r="J11">
-        <v>207699.578125</v>
+        <v>286441.96875</v>
       </c>
       <c r="K11">
-        <v>79884.359375</v>
+        <v>379079.125</v>
       </c>
       <c r="L11">
-        <v>66188.078125</v>
+        <v>390235.65625</v>
       </c>
       <c r="M11">
-        <v>25611.796875</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="N11">
-        <v>6448.721808174203</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="O11">
-        <v>7.905951529901358</v>
+        <v>85836.10113750568</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>85986.7890625</v>
       </c>
       <c r="Q11">
-        <v>-1.432156204828061E-05</v>
+        <v>2232654.75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1454,46 +1454,46 @@
         <v>583061</v>
       </c>
       <c r="D12">
-        <v>552843.3125</v>
+        <v>552961.75</v>
       </c>
       <c r="E12">
-        <v>552961.75</v>
+        <v>818844</v>
       </c>
       <c r="F12">
-        <v>818844.625</v>
+        <v>400579.53125</v>
       </c>
       <c r="G12">
-        <v>885986.8125</v>
+        <v>1369017.625</v>
       </c>
       <c r="H12">
-        <v>-747689.125</v>
+        <v>133143.984375</v>
       </c>
       <c r="I12">
-        <v>246184.953125</v>
+        <v>326499.90625</v>
       </c>
       <c r="J12">
-        <v>128236.3515625</v>
+        <v>255084.84375</v>
       </c>
       <c r="K12">
-        <v>10336.8505859375</v>
+        <v>268656.28125</v>
       </c>
       <c r="L12">
-        <v>20809.259765625</v>
+        <v>267718.78125</v>
       </c>
       <c r="M12">
-        <v>-4006.831787109375</v>
+        <v>33946.04030977908</v>
       </c>
       <c r="N12">
-        <v>5455.881450730509</v>
+        <v>58048.75904761904</v>
       </c>
       <c r="O12">
-        <v>1786.716182224816</v>
+        <v>17708.92302642329</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-0.0001305710902670398</v>
       </c>
       <c r="Q12">
-        <v>-1.432156204828061E-05</v>
+        <v>821158.75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1507,46 +1507,46 @@
         <v>577560</v>
       </c>
       <c r="D13">
-        <v>514112.96875</v>
+        <v>549669.4375</v>
       </c>
       <c r="E13">
-        <v>549669.4375</v>
+        <v>876279.875</v>
       </c>
       <c r="F13">
-        <v>876279.875</v>
+        <v>384488.53125</v>
       </c>
       <c r="G13">
-        <v>1052268.875</v>
+        <v>1331051.5</v>
       </c>
       <c r="H13">
-        <v>629959.3125</v>
+        <v>177223.171875</v>
       </c>
       <c r="I13">
-        <v>269897.25</v>
+        <v>308540.0625</v>
       </c>
       <c r="J13">
-        <v>98158.4921875</v>
+        <v>321321.28125</v>
       </c>
       <c r="K13">
-        <v>17703.642578125</v>
+        <v>302782.5</v>
       </c>
       <c r="L13">
-        <v>49696.40625</v>
+        <v>290283.875</v>
       </c>
       <c r="M13">
-        <v>13044.732421875</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="N13">
-        <v>746.2259276480847</v>
+        <v>11982.6775</v>
       </c>
       <c r="O13">
-        <v>-17.89313769666478</v>
+        <v>234.8591650852031</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.001340088085271418</v>
       </c>
       <c r="Q13">
-        <v>-1.432156204828061E-05</v>
+        <v>328952.875</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1560,46 +1560,46 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>573061.125</v>
+        <v>553265.4375</v>
       </c>
       <c r="E14">
-        <v>553265.4375</v>
+        <v>1137985.875</v>
       </c>
       <c r="F14">
-        <v>1137818</v>
+        <v>356030.34375</v>
       </c>
       <c r="G14">
-        <v>1073995.25</v>
+        <v>1098614</v>
       </c>
       <c r="H14">
-        <v>-499868.5</v>
+        <v>135065.609375</v>
       </c>
       <c r="I14">
-        <v>581435.1875</v>
+        <v>405017.03125</v>
       </c>
       <c r="J14">
-        <v>135832.171875</v>
+        <v>326013.625</v>
       </c>
       <c r="K14">
-        <v>68064.5625</v>
+        <v>245663.078125</v>
       </c>
       <c r="L14">
-        <v>78463.0078125</v>
+        <v>326522</v>
       </c>
       <c r="M14">
-        <v>8731.572265625</v>
+        <v>82547.21267997137</v>
       </c>
       <c r="N14">
-        <v>7424.655555710111</v>
+        <v>88683.60725874123</v>
       </c>
       <c r="O14">
-        <v>-18.19213247977314</v>
+        <v>85737.05530646395</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>86673.984375</v>
       </c>
       <c r="Q14">
-        <v>-1.432156204828061E-05</v>
+        <v>939147.3125</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1613,46 +1613,46 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>562676.375</v>
+        <v>551639.8125</v>
       </c>
       <c r="E15">
-        <v>551639.8125</v>
+        <v>1129697</v>
       </c>
       <c r="F15">
-        <v>1129696.875</v>
+        <v>356437.75</v>
       </c>
       <c r="G15">
-        <v>1110948.875</v>
+        <v>918760.1875</v>
       </c>
       <c r="H15">
-        <v>991886.1875</v>
+        <v>96078.6953125</v>
       </c>
       <c r="I15">
-        <v>931676.25</v>
+        <v>435982.875</v>
       </c>
       <c r="J15">
-        <v>225927.96875</v>
+        <v>523721.0625</v>
       </c>
       <c r="K15">
-        <v>205518.53125</v>
+        <v>338763.90625</v>
       </c>
       <c r="L15">
-        <v>156178.359375</v>
+        <v>489260.34375</v>
       </c>
       <c r="M15">
-        <v>77882.1171875</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="N15">
-        <v>12760.95694110772</v>
+        <v>184171.1541181319</v>
       </c>
       <c r="O15">
-        <v>186.5645193324599</v>
+        <v>165013.7206412074</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>167084.5</v>
       </c>
       <c r="Q15">
-        <v>-1.432156204828061E-05</v>
+        <v>1427645.5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1666,46 +1666,46 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>545735.0625</v>
+        <v>560512</v>
       </c>
       <c r="E16">
-        <v>560512</v>
+        <v>447966.3125</v>
       </c>
       <c r="F16">
-        <v>447966.125</v>
+        <v>328861.4375</v>
       </c>
       <c r="G16">
-        <v>1295188.125</v>
+        <v>763109.875</v>
       </c>
       <c r="H16">
-        <v>-1211377.5</v>
+        <v>63343.1796875</v>
       </c>
       <c r="I16">
-        <v>225135</v>
+        <v>374207.9375</v>
       </c>
       <c r="J16">
-        <v>77126.2734375</v>
+        <v>408758.78125</v>
       </c>
       <c r="K16">
-        <v>94924.8828125</v>
+        <v>305601.15625</v>
       </c>
       <c r="L16">
-        <v>6290.0703125</v>
+        <v>387839.6875</v>
       </c>
       <c r="M16">
-        <v>24551.67578125</v>
+        <v>54536.41237534229</v>
       </c>
       <c r="N16">
-        <v>1722.159675183999</v>
+        <v>8556.182040404039</v>
       </c>
       <c r="O16">
-        <v>-11.82751278374053</v>
+        <v>-827.5552635034837</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-0.0140733988955617</v>
       </c>
       <c r="Q16">
-        <v>-1.432156204828061E-05</v>
+        <v>-278675.65625</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1719,46 +1719,46 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>559108.9375</v>
+        <v>558366.25</v>
       </c>
       <c r="E17">
-        <v>558366.25</v>
+        <v>-21895.263671875</v>
       </c>
       <c r="F17">
-        <v>-21895.392578125</v>
+        <v>326160.3125</v>
       </c>
       <c r="G17">
-        <v>1471151.375</v>
+        <v>953497.3125</v>
       </c>
       <c r="H17">
-        <v>-51211.69921875</v>
+        <v>6203.22509765625</v>
       </c>
       <c r="I17">
-        <v>-5423.80712890625</v>
+        <v>329619.5625</v>
       </c>
       <c r="J17">
-        <v>2792.068115234375</v>
+        <v>352983.5</v>
       </c>
       <c r="K17">
-        <v>-3587.78759765625</v>
+        <v>182955.875</v>
       </c>
       <c r="L17">
-        <v>-5617.53857421875</v>
+        <v>323311.625</v>
       </c>
       <c r="M17">
-        <v>-3272.45458984375</v>
+        <v>87681.86670354029</v>
       </c>
       <c r="N17">
-        <v>6384.953236177262</v>
+        <v>16179.1848994339</v>
       </c>
       <c r="O17">
-        <v>706.9624697631807</v>
+        <v>2599.791724724244</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.02744493260979652</v>
       </c>
       <c r="Q17">
-        <v>-1.432156204828061E-05</v>
+        <v>2147461.75</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1772,46 +1772,46 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>527564.875</v>
+        <v>558767.875</v>
       </c>
       <c r="E18">
-        <v>558767.875</v>
+        <v>7080.32470703125</v>
       </c>
       <c r="F18">
-        <v>7080.23828125</v>
+        <v>363858.59375</v>
       </c>
       <c r="G18">
-        <v>1347698.375</v>
+        <v>1810648</v>
       </c>
       <c r="H18">
-        <v>507164.84375</v>
+        <v>44791.3828125</v>
       </c>
       <c r="I18">
-        <v>4839.50244140625</v>
+        <v>359441.96875</v>
       </c>
       <c r="J18">
-        <v>14762.4375</v>
+        <v>324416.40625</v>
       </c>
       <c r="K18">
-        <v>-913.7386474609375</v>
+        <v>287741.9375</v>
       </c>
       <c r="L18">
-        <v>20387.94140625</v>
+        <v>351293.46875</v>
       </c>
       <c r="M18">
-        <v>4201.5029296875</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="N18">
-        <v>11246.81520274146</v>
+        <v>64385.54943278945</v>
       </c>
       <c r="O18">
-        <v>99.37384388670034</v>
+        <v>70768.21918737948</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>70770.8671875</v>
       </c>
       <c r="Q18">
-        <v>-1.432156204828061E-05</v>
+        <v>711831.75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1825,46 +1825,46 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>538649.125</v>
+        <v>558735.75</v>
       </c>
       <c r="E19">
-        <v>558735.75</v>
+        <v>-17564.21875</v>
       </c>
       <c r="F19">
-        <v>-17564.578125</v>
+        <v>324369.9375</v>
       </c>
       <c r="G19">
-        <v>1224245.5</v>
+        <v>2721535</v>
       </c>
       <c r="H19">
-        <v>842750.625</v>
+        <v>4592.58837890625</v>
       </c>
       <c r="I19">
-        <v>17853.62890625</v>
+        <v>371695.6875</v>
       </c>
       <c r="J19">
-        <v>16276.619140625</v>
+        <v>447176.78125</v>
       </c>
       <c r="K19">
-        <v>-156.855224609375</v>
+        <v>333108.75</v>
       </c>
       <c r="L19">
-        <v>-1977.8994140625</v>
+        <v>441901.4375</v>
       </c>
       <c r="M19">
-        <v>1199.450439453125</v>
+        <v>107602.4591437413</v>
       </c>
       <c r="N19">
-        <v>11202.5664650714</v>
+        <v>142725.335</v>
       </c>
       <c r="O19">
-        <v>-280.0914941149676</v>
+        <v>171882.9133425101</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>173169.984375</v>
       </c>
       <c r="Q19">
-        <v>-1.432156204828061E-05</v>
+        <v>3363890.75</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1878,46 +1878,46 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>543802.5</v>
+        <v>562099.25</v>
       </c>
       <c r="E20">
-        <v>562099.25</v>
+        <v>-270144.09375</v>
       </c>
       <c r="F20">
-        <v>-270144.03125</v>
+        <v>369305.5</v>
       </c>
       <c r="G20">
-        <v>1452611.25</v>
+        <v>3448018.25</v>
       </c>
       <c r="H20">
-        <v>623346.625</v>
+        <v>7177.32080078125</v>
       </c>
       <c r="I20">
-        <v>10394.2509765625</v>
+        <v>473742.5625</v>
       </c>
       <c r="J20">
-        <v>-2271.32275390625</v>
+        <v>411308.125</v>
       </c>
       <c r="K20">
-        <v>6849.3955078125</v>
+        <v>316019.3125</v>
       </c>
       <c r="L20">
-        <v>-3132.546875</v>
+        <v>437129.46875</v>
       </c>
       <c r="M20">
-        <v>1403.175415039062</v>
+        <v>92304.47041717972</v>
       </c>
       <c r="N20">
-        <v>7014.271926766809</v>
+        <v>13987.59193650794</v>
       </c>
       <c r="O20">
-        <v>15.07281133088691</v>
+        <v>1186.048843117853</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.01015728712081909</v>
       </c>
       <c r="Q20">
-        <v>-1.432156204828061E-05</v>
+        <v>3539326.5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1931,46 +1931,46 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>543197.8125</v>
+        <v>563202.5</v>
       </c>
       <c r="E21">
-        <v>563202.5</v>
+        <v>185649.59375</v>
       </c>
       <c r="F21">
-        <v>185649.734375</v>
+        <v>345583.53125</v>
       </c>
       <c r="G21">
-        <v>1598165.5</v>
+        <v>3695040</v>
       </c>
       <c r="H21">
-        <v>-624278.125</v>
+        <v>13850.7578125</v>
       </c>
       <c r="I21">
-        <v>-1223.137084960938</v>
+        <v>474751.75</v>
       </c>
       <c r="J21">
-        <v>-2934.244140625</v>
+        <v>449899.09375</v>
       </c>
       <c r="K21">
-        <v>6048.6943359375</v>
+        <v>232749.109375</v>
       </c>
       <c r="L21">
-        <v>6264.57861328125</v>
+        <v>477829.5625</v>
       </c>
       <c r="M21">
-        <v>4325.9267578125</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="N21">
-        <v>2340.012610637869</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="O21">
-        <v>-195.9848612280039</v>
+        <v>85185.68966818415</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>85453.6015625</v>
       </c>
       <c r="Q21">
-        <v>-1.432156204828061E-05</v>
+        <v>-467593.65625</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1984,46 +1984,46 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>580945.25</v>
+        <v>562012.3125</v>
       </c>
       <c r="E22">
-        <v>562012.3125</v>
+        <v>121747.796875</v>
       </c>
       <c r="F22">
-        <v>121747.875</v>
+        <v>299880.625</v>
       </c>
       <c r="G22">
-        <v>1512407.625</v>
+        <v>3886823.75</v>
       </c>
       <c r="H22">
-        <v>845329</v>
+        <v>17185.837890625</v>
       </c>
       <c r="I22">
-        <v>-5163.24658203125</v>
+        <v>524075.625</v>
       </c>
       <c r="J22">
-        <v>-3745.340087890625</v>
+        <v>451573.34375</v>
       </c>
       <c r="K22">
-        <v>-7323.40087890625</v>
+        <v>287619.375</v>
       </c>
       <c r="L22">
-        <v>3631.28369140625</v>
+        <v>466400.90625</v>
       </c>
       <c r="M22">
-        <v>165.0589141845703</v>
+        <v>36816.17834227146</v>
       </c>
       <c r="N22">
-        <v>12195.40682251511</v>
+        <v>79744.96530412644</v>
       </c>
       <c r="O22">
-        <v>-88.05683043433237</v>
+        <v>74219.44622398583</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>74205.875</v>
       </c>
       <c r="Q22">
-        <v>-1.432156204828061E-05</v>
+        <v>1247286.75</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2037,46 +2037,46 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>546079.9375</v>
+        <v>560284.625</v>
       </c>
       <c r="E23">
-        <v>560284.625</v>
+        <v>-40041.2890625</v>
       </c>
       <c r="F23">
-        <v>-40041.0234375</v>
+        <v>396609.59375</v>
       </c>
       <c r="G23">
-        <v>1403370.625</v>
+        <v>4041559.25</v>
       </c>
       <c r="H23">
-        <v>1932998.75</v>
+        <v>29064.240234375</v>
       </c>
       <c r="I23">
-        <v>-8745.76171875</v>
+        <v>511099.0625</v>
       </c>
       <c r="J23">
-        <v>-10717.361328125</v>
+        <v>421879.125</v>
       </c>
       <c r="K23">
-        <v>6035.767578125</v>
+        <v>213969.21875</v>
       </c>
       <c r="L23">
-        <v>3650.423095703125</v>
+        <v>532103.3125</v>
       </c>
       <c r="M23">
-        <v>1704.2509765625</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="N23">
-        <v>12760.95694110772</v>
+        <v>130642.9885714286</v>
       </c>
       <c r="O23">
-        <v>324.8787853776303</v>
+        <v>136184.2434506005</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>135495.015625</v>
       </c>
       <c r="Q23">
-        <v>-1.432156204828061E-05</v>
+        <v>4598175.5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2090,46 +2090,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>601437.125</v>
+        <v>561698.8125</v>
       </c>
       <c r="E24">
-        <v>561698.8125</v>
+        <v>-241652.875</v>
       </c>
       <c r="F24">
-        <v>-241653.078125</v>
+        <v>379343.90625</v>
       </c>
       <c r="G24">
-        <v>1204606.25</v>
+        <v>4010462.5</v>
       </c>
       <c r="H24">
-        <v>-792435.8125</v>
+        <v>3611.817138671875</v>
       </c>
       <c r="I24">
-        <v>792.24853515625</v>
+        <v>591242.5</v>
       </c>
       <c r="J24">
-        <v>2696.880859375</v>
+        <v>530181.5</v>
       </c>
       <c r="K24">
-        <v>11700.373046875</v>
+        <v>277660.65625</v>
       </c>
       <c r="L24">
-        <v>9406.0595703125</v>
+        <v>561468.0625</v>
       </c>
       <c r="M24">
-        <v>24337.486328125</v>
+        <v>119283.5673082223</v>
       </c>
       <c r="N24">
-        <v>4168.885656547096</v>
+        <v>273880.1503333334</v>
       </c>
       <c r="O24">
-        <v>552.2351592481427</v>
+        <v>268176.8208604041</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>268236.96875</v>
       </c>
       <c r="Q24">
-        <v>-1.432156204828061E-05</v>
+        <v>6801370</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2143,46 +2143,46 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>566088.6875</v>
+        <v>561246.625</v>
       </c>
       <c r="E25">
-        <v>561246.625</v>
+        <v>30105.119140625</v>
       </c>
       <c r="F25">
-        <v>30104.984375</v>
+        <v>359393.5</v>
       </c>
       <c r="G25">
-        <v>1123366.375</v>
+        <v>4525749.5</v>
       </c>
       <c r="H25">
-        <v>116632.421875</v>
+        <v>5517.4658203125</v>
       </c>
       <c r="I25">
-        <v>-11362.6357421875</v>
+        <v>645261.625</v>
       </c>
       <c r="J25">
-        <v>-376.0859985351562</v>
+        <v>619903</v>
       </c>
       <c r="K25">
-        <v>42406.4765625</v>
+        <v>269985.75</v>
       </c>
       <c r="L25">
-        <v>22414.916015625</v>
+        <v>649633.5</v>
       </c>
       <c r="M25">
-        <v>31238.70703125</v>
+        <v>145834.5128115442</v>
       </c>
       <c r="N25">
-        <v>12859.52568863943</v>
+        <v>180154.0113333333</v>
       </c>
       <c r="O25">
-        <v>-237.9221333828609</v>
+        <v>194848.8107510949</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>195355.328125</v>
       </c>
       <c r="Q25">
-        <v>-1.432156204828061E-05</v>
+        <v>5845612</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2196,46 +2196,46 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>604146.3125</v>
+        <v>565118.5625</v>
       </c>
       <c r="E26">
-        <v>565118.5625</v>
+        <v>-23133.310546875</v>
       </c>
       <c r="F26">
-        <v>-23133.314453125</v>
+        <v>349127.375</v>
       </c>
       <c r="G26">
-        <v>1324211.875</v>
+        <v>5298178.5</v>
       </c>
       <c r="H26">
-        <v>2245020.5</v>
+        <v>3858.27783203125</v>
       </c>
       <c r="I26">
-        <v>-10308.9453125</v>
+        <v>554086.8125</v>
       </c>
       <c r="J26">
-        <v>-2770.475830078125</v>
+        <v>557560.375</v>
       </c>
       <c r="K26">
-        <v>-3229.893798828125</v>
+        <v>177724.09375</v>
       </c>
       <c r="L26">
-        <v>2392.10595703125</v>
+        <v>596144.9375</v>
       </c>
       <c r="M26">
-        <v>1037.961547851562</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="N26">
-        <v>7360.886983713173</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="O26">
-        <v>-88.63639154953125</v>
+        <v>91122.8238470458</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>91068.34375</v>
       </c>
       <c r="Q26">
-        <v>-1.432156204828061E-05</v>
+        <v>5237855</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2249,46 +2249,46 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>582296.1875</v>
+        <v>565561.5625</v>
       </c>
       <c r="E27">
-        <v>565561.5625</v>
+        <v>-37860.421875</v>
       </c>
       <c r="F27">
-        <v>-37860.390625</v>
+        <v>309997.71875</v>
       </c>
       <c r="G27">
-        <v>1595374.125</v>
+        <v>6421786</v>
       </c>
       <c r="H27">
-        <v>-288375.75</v>
+        <v>21937.541015625</v>
       </c>
       <c r="I27">
-        <v>-10223.52734375</v>
+        <v>599341.0625</v>
       </c>
       <c r="J27">
-        <v>-5577.6533203125</v>
+        <v>586809.8125</v>
       </c>
       <c r="K27">
-        <v>13680.3046875</v>
+        <v>239476.8125</v>
       </c>
       <c r="L27">
-        <v>6886.72607421875</v>
+        <v>636010.375</v>
       </c>
       <c r="M27">
-        <v>32062.16796875</v>
+        <v>80594.15275537813</v>
       </c>
       <c r="N27">
-        <v>12859.52568863943</v>
+        <v>48092.623</v>
       </c>
       <c r="O27">
-        <v>-200.5260140956525</v>
+        <v>4825.360302785557</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.1045982018113136</v>
       </c>
       <c r="Q27">
-        <v>-1.432156204828061E-05</v>
+        <v>4893150.5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2302,46 +2302,46 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>551641.1875</v>
+        <v>563952.5625</v>
       </c>
       <c r="E28">
-        <v>563952.5625</v>
+        <v>-143647.296875</v>
       </c>
       <c r="F28">
-        <v>-143646.71875</v>
+        <v>149415.109375</v>
       </c>
       <c r="G28">
-        <v>1839213.25</v>
+        <v>6414729.5</v>
       </c>
       <c r="H28">
-        <v>1250027.875</v>
+        <v>12925.7001953125</v>
       </c>
       <c r="I28">
-        <v>-7598.9765625</v>
+        <v>654694.6875</v>
       </c>
       <c r="J28">
-        <v>-2881.214599609375</v>
+        <v>627045.6875</v>
       </c>
       <c r="K28">
-        <v>8485.1279296875</v>
+        <v>190783.515625</v>
       </c>
       <c r="L28">
-        <v>3575.97265625</v>
+        <v>692789.6875</v>
       </c>
       <c r="M28">
-        <v>9726.814453125</v>
+        <v>68417.87894695351</v>
       </c>
       <c r="N28">
-        <v>11122.0198254827</v>
+        <v>13208.48988797314</v>
       </c>
       <c r="O28">
-        <v>48.71468443283811</v>
+        <v>7864.214931780996</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.2878141701221466</v>
       </c>
       <c r="Q28">
-        <v>-1.432156204828061E-05</v>
+        <v>3955902.5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2355,46 +2355,46 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>557122.6875</v>
+        <v>570359.5625</v>
       </c>
       <c r="E29">
-        <v>570359.5625</v>
+        <v>-113514.6640625</v>
       </c>
       <c r="F29">
-        <v>-113513.921875</v>
+        <v>301833.75</v>
       </c>
       <c r="G29">
-        <v>2153885</v>
+        <v>6256049.5</v>
       </c>
       <c r="H29">
-        <v>2148256.25</v>
+        <v>51589.53125</v>
       </c>
       <c r="I29">
-        <v>-18062.6484375</v>
+        <v>579356.5</v>
       </c>
       <c r="J29">
-        <v>-7103.1376953125</v>
+        <v>583120.75</v>
       </c>
       <c r="K29">
-        <v>3177.516845703125</v>
+        <v>196579.703125</v>
       </c>
       <c r="L29">
-        <v>-1120.6455078125</v>
+        <v>656360.125</v>
       </c>
       <c r="M29">
-        <v>915.1687622070312</v>
+        <v>87681.86670354029</v>
       </c>
       <c r="N29">
-        <v>6384.953236177262</v>
+        <v>16179.1848994339</v>
       </c>
       <c r="O29">
-        <v>706.9624697631807</v>
+        <v>2599.791724724244</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.02744493260979652</v>
       </c>
       <c r="Q29">
-        <v>-1.432156204828061E-05</v>
+        <v>5758461</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2408,46 +2408,46 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>605481.3125</v>
+        <v>568557.75</v>
       </c>
       <c r="E30">
-        <v>568557.75</v>
+        <v>87490.375</v>
       </c>
       <c r="F30">
-        <v>87490.3125</v>
+        <v>118473.21875</v>
       </c>
       <c r="G30">
-        <v>2269543</v>
+        <v>6030143.5</v>
       </c>
       <c r="H30">
-        <v>1763655.25</v>
+        <v>56989.00390625</v>
       </c>
       <c r="I30">
-        <v>5128.3681640625</v>
+        <v>655614.4375</v>
       </c>
       <c r="J30">
-        <v>-5420.708984375</v>
+        <v>608049.3125</v>
       </c>
       <c r="K30">
-        <v>-5825.83447265625</v>
+        <v>265722.4375</v>
       </c>
       <c r="L30">
-        <v>2044.837524414062</v>
+        <v>805420.0625</v>
       </c>
       <c r="M30">
-        <v>-732.952880859375</v>
+        <v>56174.33604527057</v>
       </c>
       <c r="N30">
-        <v>746.2259276480847</v>
+        <v>11982.6775</v>
       </c>
       <c r="O30">
-        <v>-17.89313769666478</v>
+        <v>234.8591650852031</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.001340088085271418</v>
       </c>
       <c r="Q30">
-        <v>-1.432156204828061E-05</v>
+        <v>6301058.5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2461,46 +2461,46 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>607473.5</v>
+        <v>570113.625</v>
       </c>
       <c r="E31">
-        <v>570113.625</v>
+        <v>-344493.96875</v>
       </c>
       <c r="F31">
-        <v>-344493.75</v>
+        <v>269933.75</v>
       </c>
       <c r="G31">
-        <v>2261547.25</v>
+        <v>6072022.5</v>
       </c>
       <c r="H31">
-        <v>-318887.09375</v>
+        <v>212077.828125</v>
       </c>
       <c r="I31">
-        <v>8699.4208984375</v>
+        <v>604439.75</v>
       </c>
       <c r="J31">
-        <v>-4043.650634765625</v>
+        <v>662964.9375</v>
       </c>
       <c r="K31">
-        <v>15893.8193359375</v>
+        <v>208796.8125</v>
       </c>
       <c r="L31">
-        <v>-352.4484252929688</v>
+        <v>616562.8125</v>
       </c>
       <c r="M31">
-        <v>13951.095703125</v>
+        <v>82307.5356845565</v>
       </c>
       <c r="N31">
-        <v>7360.886983713173</v>
+        <v>94211.21252886001</v>
       </c>
       <c r="O31">
-        <v>-88.63639154953125</v>
+        <v>91122.8238470458</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>91068.34375</v>
       </c>
       <c r="Q31">
-        <v>-1.432156204828061E-05</v>
+        <v>6214208</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2514,46 +2514,46 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>591043.4375</v>
+        <v>572738.6875</v>
       </c>
       <c r="E32">
-        <v>572738.6875</v>
+        <v>67546.4140625</v>
       </c>
       <c r="F32">
-        <v>67546.828125</v>
+        <v>109169.8515625</v>
       </c>
       <c r="G32">
-        <v>2405862.75</v>
+        <v>6794070.5</v>
       </c>
       <c r="H32">
-        <v>1071817.25</v>
+        <v>271310.375</v>
       </c>
       <c r="I32">
-        <v>431.6804504394531</v>
+        <v>584243.4375</v>
       </c>
       <c r="J32">
-        <v>-5961.99169921875</v>
+        <v>438968.5</v>
       </c>
       <c r="K32">
-        <v>4378.44482421875</v>
+        <v>144154.984375</v>
       </c>
       <c r="L32">
-        <v>3976.229248046875</v>
+        <v>735783.6875</v>
       </c>
       <c r="M32">
-        <v>3951.55859375</v>
+        <v>110170.0952771457</v>
       </c>
       <c r="N32">
-        <v>12760.95694110772</v>
+        <v>130642.9885714286</v>
       </c>
       <c r="O32">
-        <v>324.8787853776303</v>
+        <v>136184.2434506005</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>135495.015625</v>
       </c>
       <c r="Q32">
-        <v>-1.432156204828061E-05</v>
+        <v>4652300</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2567,46 +2567,46 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>584470.8125</v>
+        <v>572729.4375</v>
       </c>
       <c r="E33">
-        <v>572729.4375</v>
+        <v>43835.49609375</v>
       </c>
       <c r="F33">
-        <v>43835.75</v>
+        <v>119996.5546875</v>
       </c>
       <c r="G33">
-        <v>2518473.75</v>
+        <v>7996004</v>
       </c>
       <c r="H33">
-        <v>-1013693.0625</v>
+        <v>455506.125</v>
       </c>
       <c r="I33">
-        <v>2009.720336914062</v>
+        <v>636750.9375</v>
       </c>
       <c r="J33">
-        <v>-3661.3583984375</v>
+        <v>618917.875</v>
       </c>
       <c r="K33">
-        <v>-9866.533203125</v>
+        <v>220479.515625</v>
       </c>
       <c r="L33">
-        <v>8.266899108886719</v>
+        <v>964393.875</v>
       </c>
       <c r="M33">
-        <v>-4246.13232421875</v>
+        <v>65078.18678217099</v>
       </c>
       <c r="N33">
-        <v>2340.012610637869</v>
+        <v>90662.35451803749</v>
       </c>
       <c r="O33">
-        <v>-195.9848612280039</v>
+        <v>85185.68966818415</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>85453.6015625</v>
       </c>
       <c r="Q33">
-        <v>-1.432156204828061E-05</v>
+        <v>7779791.5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2620,46 +2620,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>578407.25</v>
+        <v>574375.3125</v>
       </c>
       <c r="E34">
-        <v>574375.3125</v>
+        <v>-171346.984375</v>
       </c>
       <c r="F34">
-        <v>-171347.078125</v>
+        <v>-16317.8505859375</v>
       </c>
       <c r="G34">
-        <v>2521707</v>
+        <v>8536582</v>
       </c>
       <c r="H34">
-        <v>941244</v>
+        <v>709637.25</v>
       </c>
       <c r="I34">
-        <v>-33458.65234375</v>
+        <v>742485.1875</v>
       </c>
       <c r="J34">
-        <v>-2294.0537109375</v>
+        <v>549404.1875</v>
       </c>
       <c r="K34">
-        <v>-1171.200561523438</v>
+        <v>289134.28125</v>
       </c>
       <c r="L34">
-        <v>2488.50732421875</v>
+        <v>749303.6875</v>
       </c>
       <c r="M34">
-        <v>-1534.05224609375</v>
+        <v>87921.54369895517</v>
       </c>
       <c r="N34">
-        <v>6448.721808174203</v>
+        <v>91950.87008011669</v>
       </c>
       <c r="O34">
-        <v>7.905951529901358</v>
+        <v>85836.10113750568</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>85986.7890625</v>
       </c>
       <c r="Q34">
-        <v>-1.432156204828061E-05</v>
+        <v>7861082</v>
       </c>
     </row>
   </sheetData>
@@ -2703,129 +2703,129 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7739883581.039978</v>
+        <v>8055513477.54659</v>
       </c>
       <c r="C2">
-        <v>87976.60814693857</v>
+        <v>89752.51237456582</v>
       </c>
       <c r="D2">
-        <v>0.04191526711371676</v>
+        <v>0.03797644736730788</v>
       </c>
       <c r="E2">
-        <v>48398.98046875</v>
+        <v>52821.3359375</v>
       </c>
       <c r="F2">
-        <v>0.1381581799109243</v>
+        <v>0.1449194796191456</v>
       </c>
       <c r="G2">
-        <v>18869.703125</v>
+        <v>28094.4140625</v>
       </c>
       <c r="H2">
-        <v>0.0683408358686442</v>
+        <v>0.1016007938844614</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>8055513477.54659</v>
+        <v>9311033645.456238</v>
       </c>
       <c r="C3">
-        <v>89752.51237456582</v>
+        <v>96493.69743903608</v>
       </c>
       <c r="D3">
-        <v>0.03797644736730788</v>
+        <v>0.04762731059249539</v>
       </c>
       <c r="E3">
-        <v>52821.3359375</v>
+        <v>55020.12109375</v>
       </c>
       <c r="F3">
-        <v>0.1449194796191456</v>
+        <v>0.1519640945490763</v>
       </c>
       <c r="G3">
-        <v>28094.4140625</v>
+        <v>24787.2890625</v>
       </c>
       <c r="H3">
-        <v>0.1016007938844614</v>
+        <v>0.09722768700443958</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>12326982934.2254</v>
+        <v>11010481953.23938</v>
       </c>
       <c r="C4">
-        <v>111026.9468832923</v>
+        <v>104930.8436697208</v>
       </c>
       <c r="D4">
-        <v>0.09692350695090879</v>
+        <v>0.05810679145976014</v>
       </c>
       <c r="E4">
-        <v>79810.56380208333</v>
+        <v>65500.046875</v>
       </c>
       <c r="F4">
-        <v>0.2431586835669564</v>
+        <v>0.185356598526051</v>
       </c>
       <c r="G4">
-        <v>45407.0859375</v>
+        <v>42995.3203125</v>
       </c>
       <c r="H4">
-        <v>0.1740789290714655</v>
+        <v>0.1484957267907906</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>10119687953.33671</v>
+        <v>8769579273.954794</v>
       </c>
       <c r="C5">
-        <v>100596.659752383</v>
+        <v>93646.03181104256</v>
       </c>
       <c r="D5">
-        <v>0.08764726770918918</v>
+        <v>0.0506657930937008</v>
       </c>
       <c r="E5">
-        <v>86763.17447916667</v>
+        <v>62397.9921875</v>
       </c>
       <c r="F5">
-        <v>0.2767290328461515</v>
+        <v>0.183277006459786</v>
       </c>
       <c r="G5">
-        <v>66863.15625</v>
+        <v>46687.2265625</v>
       </c>
       <c r="H5">
-        <v>0.2669468750237913</v>
+        <v>0.1554597880452928</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>38934180837.56042</v>
+        <v>12327298546.07721</v>
       </c>
       <c r="C6">
-        <v>197317.46206953</v>
+        <v>111028.3682041541</v>
       </c>
       <c r="D6">
-        <v>0.3876729626462858</v>
+        <v>0.09701617120495258</v>
       </c>
       <c r="E6">
-        <v>183196.6145833333</v>
+        <v>79873.52213541667</v>
       </c>
       <c r="F6">
-        <v>0.6029811461256367</v>
+        <v>0.2434224908884975</v>
       </c>
       <c r="G6">
-        <v>175149.892578125</v>
+        <v>45615.7421875</v>
       </c>
       <c r="H6">
-        <v>0.6280381666228867</v>
+        <v>0.1748362497664444</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2833,155 +2833,155 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>64724578829.24796</v>
+        <v>10550617928.953</v>
       </c>
       <c r="C7">
-        <v>254410.256926186</v>
+        <v>102716.2009079045</v>
       </c>
       <c r="D7">
-        <v>0.8006414362077493</v>
+        <v>0.07939483259461699</v>
       </c>
       <c r="E7">
-        <v>219324.1924641927</v>
+        <v>76791.40364583333</v>
       </c>
       <c r="F7">
-        <v>0.7577674351539612</v>
+        <v>0.2372090683309656</v>
       </c>
       <c r="G7">
-        <v>203247.203125</v>
+        <v>62467.328125</v>
       </c>
       <c r="H7">
-        <v>0.6393003930346983</v>
+        <v>0.2155211952421856</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>54817935185.94559</v>
+        <v>15924171545.60551</v>
       </c>
       <c r="C8">
-        <v>234132.3027391684</v>
+        <v>126191.0121427256</v>
       </c>
       <c r="D8">
-        <v>0.5573452055547979</v>
+        <v>0.1053102936903537</v>
       </c>
       <c r="E8">
-        <v>221477.7440592448</v>
+        <v>92807.2578125</v>
       </c>
       <c r="F8">
-        <v>0.7329924312866526</v>
+        <v>0.2804142871757937</v>
       </c>
       <c r="G8">
-        <v>208732.28515625</v>
+        <v>65376.84375</v>
       </c>
       <c r="H8">
-        <v>0.7650655121673078</v>
+        <v>0.2518875004833761</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>55087234619.36198</v>
+        <v>73738407061.72981</v>
       </c>
       <c r="C9">
-        <v>234706.6991360962</v>
+        <v>271548.1671117112</v>
       </c>
       <c r="D9">
-        <v>0.5792480751532096</v>
+        <v>0.9491363581567831</v>
       </c>
       <c r="E9">
-        <v>224557.1608072917</v>
+        <v>199154.2447916667</v>
       </c>
       <c r="F9">
-        <v>0.7488270751370757</v>
+        <v>0.7100279757911004</v>
       </c>
       <c r="G9">
-        <v>224567.16015625</v>
+        <v>129442.75</v>
       </c>
       <c r="H9">
-        <v>0.7881174676242424</v>
+        <v>0.431036215700092</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>92373038469.99945</v>
+        <v>71480291220.69373</v>
       </c>
       <c r="C10">
-        <v>303929.3313749093</v>
+        <v>267357.9832746607</v>
       </c>
       <c r="D10">
-        <v>0.8736440124294741</v>
+        <v>0.7475613317453543</v>
       </c>
       <c r="E10">
-        <v>266006.1962890625</v>
+        <v>257181.3460836193</v>
       </c>
       <c r="F10">
-        <v>0.8666246601047712</v>
+        <v>0.8538855145270149</v>
       </c>
       <c r="G10">
-        <v>225096.431640625</v>
+        <v>259115.28125</v>
       </c>
       <c r="H10">
-        <v>0.8133589344812175</v>
+        <v>0.8853181492715314</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>64480539980.12499</v>
+        <v>73936742174.44229</v>
       </c>
       <c r="C11">
-        <v>253930.1872171267</v>
+        <v>271913.1151203308</v>
       </c>
       <c r="D11">
-        <v>0.6798860242622909</v>
+        <v>0.7606253478757696</v>
       </c>
       <c r="E11">
-        <v>242313.812693278</v>
+        <v>261038.6209616693</v>
       </c>
       <c r="F11">
-        <v>0.8080368427555338</v>
+        <v>0.8640151129411562</v>
       </c>
       <c r="G11">
-        <v>241052.1843261719</v>
+        <v>258861.9078020696</v>
       </c>
       <c r="H11">
-        <v>0.8783293718308707</v>
+        <v>0.9064771047710773</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>93787480923.30391</v>
+        <v>78835481582.90651</v>
       </c>
       <c r="C12">
-        <v>306247.4178230796</v>
+        <v>280776.5687925303</v>
       </c>
       <c r="D12">
-        <v>0.976916569261264</v>
+        <v>0.7916413342276999</v>
       </c>
       <c r="E12">
-        <v>297119.6194531671</v>
+        <v>268964.8562623053</v>
       </c>
       <c r="F12">
-        <v>0.9883132334868986</v>
+        <v>0.8878841256770883</v>
       </c>
       <c r="G12">
-        <v>277013.1789177461</v>
+        <v>251705.837714341</v>
       </c>
       <c r="H12">
-        <v>0.9913922712799335</v>
+        <v>0.9105570044351776</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2989,77 +2989,77 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>95350756875.1768</v>
+        <v>77487553245.35008</v>
       </c>
       <c r="C13">
-        <v>308789.1786885946</v>
+        <v>278365.8622125746</v>
       </c>
       <c r="D13">
-        <v>0.9979105141166377</v>
+        <v>0.7962542834674693</v>
       </c>
       <c r="E13">
-        <v>300052.684636416</v>
+        <v>267569.0369948839</v>
       </c>
       <c r="F13">
-        <v>0.9989519197332023</v>
+        <v>0.8865970666652244</v>
       </c>
       <c r="G13">
-        <v>280715.1310164565</v>
+        <v>259134.9744144435</v>
       </c>
       <c r="H13">
-        <v>0.9999468697602215</v>
+        <v>0.9297409071216896</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>95507560761.3495</v>
+        <v>100566200987.222</v>
       </c>
       <c r="C14">
-        <v>309042.975589722</v>
+        <v>317121.7447404419</v>
       </c>
       <c r="D14">
-        <v>0.9999999998839156</v>
+        <v>1.134679330782304</v>
       </c>
       <c r="E14">
-        <v>300335.0833165734</v>
+        <v>298382.8707682292</v>
       </c>
       <c r="F14">
-        <v>0.999999999941958</v>
+        <v>1.006707250450557</v>
       </c>
       <c r="G14">
-        <v>280708.4999832401</v>
+        <v>293060.453125</v>
       </c>
       <c r="H14">
-        <v>0.9999999999402942</v>
+        <v>1.003152934848395</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>95507560771.41667</v>
+        <v>219830027839.2122</v>
       </c>
       <c r="C15">
-        <v>309042.9756060097</v>
+        <v>468860.3500395531</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2.461955778325047</v>
       </c>
       <c r="E15">
-        <v>300335.0833333333</v>
+        <v>388425.2819010417</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.295557028279143</v>
       </c>
       <c r="G15">
-        <v>280708.5</v>
+        <v>317909.09375</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1.026396528200469</v>
       </c>
     </row>
   </sheetData>
@@ -3089,43 +3089,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3139,46 +3139,46 @@
         <v>297771</v>
       </c>
       <c r="D2">
-        <v>242563.78125</v>
+        <v>241886.859375</v>
       </c>
       <c r="E2">
-        <v>241886.859375</v>
+        <v>183565.21875</v>
       </c>
       <c r="F2">
-        <v>265577.125</v>
+        <v>207797.875</v>
       </c>
       <c r="G2">
-        <v>237204.21875</v>
+        <v>206927.21875</v>
       </c>
       <c r="H2">
-        <v>171813.046875</v>
+        <v>265577.28125</v>
       </c>
       <c r="I2">
-        <v>480657.78125</v>
+        <v>234573.78125</v>
       </c>
       <c r="J2">
-        <v>130971.1171875</v>
+        <v>140844.125</v>
       </c>
       <c r="K2">
-        <v>131733.5</v>
+        <v>447488.90625</v>
       </c>
       <c r="L2">
-        <v>-178962.765625</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M2">
-        <v>145101.125</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N2">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O2">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P2">
-        <v>1.675988823990338E-05</v>
+        <v>-57199.1796875</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>153489</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3192,46 +3192,46 @@
         <v>527740</v>
       </c>
       <c r="D3">
-        <v>248482.9375</v>
+        <v>240830.921875</v>
       </c>
       <c r="E3">
-        <v>240830.921875</v>
+        <v>227145.703125</v>
       </c>
       <c r="F3">
-        <v>264071.15625</v>
+        <v>204758.46875</v>
       </c>
       <c r="G3">
-        <v>304313.34375</v>
+        <v>246216.953125</v>
       </c>
       <c r="H3">
-        <v>151786.9375</v>
+        <v>264277.03125</v>
       </c>
       <c r="I3">
-        <v>211798.171875</v>
+        <v>258686.640625</v>
       </c>
       <c r="J3">
-        <v>92261.921875</v>
+        <v>176782.40625</v>
       </c>
       <c r="K3">
-        <v>106875.0859375</v>
+        <v>469577.25</v>
       </c>
       <c r="L3">
-        <v>-103669.6171875</v>
+        <v>87255.4921875</v>
       </c>
       <c r="M3">
-        <v>85420.0859375</v>
+        <v>62550.14933333333</v>
       </c>
       <c r="N3">
-        <v>-2227.829701201015</v>
+        <v>8299.322232353483</v>
       </c>
       <c r="O3">
-        <v>198.2837762226845</v>
+        <v>40425.72830627548</v>
       </c>
       <c r="P3">
-        <v>1.675988823990338E-05</v>
+        <v>71934.25</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-44113.4921875</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3245,46 +3245,46 @@
         <v>272448</v>
       </c>
       <c r="D4">
-        <v>254839.953125</v>
+        <v>243385.203125</v>
       </c>
       <c r="E4">
-        <v>243385.203125</v>
+        <v>264429.21875</v>
       </c>
       <c r="F4">
-        <v>193807.296875</v>
+        <v>245619.25</v>
       </c>
       <c r="G4">
-        <v>325730.3125</v>
+        <v>253256.265625</v>
       </c>
       <c r="H4">
-        <v>181626.5</v>
+        <v>193397.828125</v>
       </c>
       <c r="I4">
-        <v>144248.578125</v>
+        <v>269297.84375</v>
       </c>
       <c r="J4">
-        <v>143155.21875</v>
+        <v>217336.84375</v>
       </c>
       <c r="K4">
-        <v>130387.28125</v>
+        <v>509256.78125</v>
       </c>
       <c r="L4">
-        <v>51765.48046875</v>
+        <v>17443.666015625</v>
       </c>
       <c r="M4">
-        <v>122350.0625</v>
+        <v>18668.47320818799</v>
       </c>
       <c r="N4">
-        <v>999.2977754704466</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O4">
-        <v>2.13291095841123</v>
+        <v>17413.94599634545</v>
       </c>
       <c r="P4">
-        <v>1.675988823990338E-05</v>
+        <v>459771.125</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>458274.46875</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3298,46 +3298,46 @@
         <v>280402</v>
       </c>
       <c r="D5">
-        <v>261634.59375</v>
+        <v>255144.296875</v>
       </c>
       <c r="E5">
-        <v>255144.296875</v>
+        <v>291661.5625</v>
       </c>
       <c r="F5">
-        <v>267520.15625</v>
+        <v>278500.6875</v>
       </c>
       <c r="G5">
-        <v>382604.03125</v>
+        <v>301252.5625</v>
       </c>
       <c r="H5">
-        <v>180290.21875</v>
+        <v>267520.09375</v>
       </c>
       <c r="I5">
-        <v>342426.75</v>
+        <v>274655.84375</v>
       </c>
       <c r="J5">
-        <v>133458.046875</v>
+        <v>223132.890625</v>
       </c>
       <c r="K5">
-        <v>128238.453125</v>
+        <v>463123.75</v>
       </c>
       <c r="L5">
-        <v>130090.65625</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M5">
-        <v>120531.5546875</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N5">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O5">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P5">
-        <v>1.675988823990338E-05</v>
+        <v>-95062.796875</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>444227.125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3351,46 +3351,46 @@
         <v>249895</v>
       </c>
       <c r="D6">
-        <v>268867</v>
+        <v>245267.828125</v>
       </c>
       <c r="E6">
-        <v>245267.828125</v>
+        <v>258012.515625</v>
       </c>
       <c r="F6">
-        <v>252972.65625</v>
+        <v>226902.625</v>
       </c>
       <c r="G6">
-        <v>320902.5</v>
+        <v>219317.3125</v>
       </c>
       <c r="H6">
-        <v>108907.921875</v>
+        <v>253105.875</v>
       </c>
       <c r="I6">
-        <v>473502.625</v>
+        <v>212542.015625</v>
       </c>
       <c r="J6">
-        <v>70454.5078125</v>
+        <v>181506.875</v>
       </c>
       <c r="K6">
-        <v>49271.4375</v>
+        <v>305558</v>
       </c>
       <c r="L6">
-        <v>54637.6484375</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M6">
-        <v>18479.77734375</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N6">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O6">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P6">
-        <v>1.675988823990338E-05</v>
+        <v>471290.46875</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>610956.5625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,46 +3404,46 @@
         <v>275474</v>
       </c>
       <c r="D7">
-        <v>276540.9375</v>
+        <v>259205.78125</v>
       </c>
       <c r="E7">
-        <v>259205.78125</v>
+        <v>235165.171875</v>
       </c>
       <c r="F7">
-        <v>219685</v>
+        <v>223884.625</v>
       </c>
       <c r="G7">
-        <v>393345.65625</v>
+        <v>241468.078125</v>
       </c>
       <c r="H7">
-        <v>120440.7421875</v>
+        <v>219267.21875</v>
       </c>
       <c r="I7">
-        <v>411817.03125</v>
+        <v>213736.5625</v>
       </c>
       <c r="J7">
-        <v>68611.2421875</v>
+        <v>198984.09375</v>
       </c>
       <c r="K7">
-        <v>51049.8984375</v>
+        <v>215630.6875</v>
       </c>
       <c r="L7">
-        <v>114279.4296875</v>
+        <v>-867.3833618164062</v>
       </c>
       <c r="M7">
-        <v>27088.27734375</v>
+        <v>4351.740178571428</v>
       </c>
       <c r="N7">
-        <v>9435.351959965916</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O7">
-        <v>856.7927895828616</v>
+        <v>-17204.29108301887</v>
       </c>
       <c r="P7">
-        <v>1.675988823990338E-05</v>
+        <v>43158.27734375</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>498911.84375</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3457,46 +3457,46 @@
         <v>283487</v>
       </c>
       <c r="D8">
-        <v>284650.0625</v>
+        <v>249237.625</v>
       </c>
       <c r="E8">
-        <v>249237.625</v>
+        <v>314526.0625</v>
       </c>
       <c r="F8">
-        <v>258681.953125</v>
+        <v>299359.875</v>
       </c>
       <c r="G8">
-        <v>329606.5</v>
+        <v>286319</v>
       </c>
       <c r="H8">
-        <v>103951.5234375</v>
+        <v>258681.90625</v>
       </c>
       <c r="I8">
-        <v>46521.0625</v>
+        <v>254999.875</v>
       </c>
       <c r="J8">
-        <v>89844.9609375</v>
+        <v>285453.96875</v>
       </c>
       <c r="K8">
-        <v>75487.765625</v>
+        <v>280387.6875</v>
       </c>
       <c r="L8">
-        <v>387302.71875</v>
+        <v>17443.666015625</v>
       </c>
       <c r="M8">
-        <v>72057.5625</v>
+        <v>18668.47320818799</v>
       </c>
       <c r="N8">
-        <v>999.2977754704466</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O8">
-        <v>2.13291095841123</v>
+        <v>17413.94599634545</v>
       </c>
       <c r="P8">
-        <v>1.675988823990338E-05</v>
+        <v>358279.125</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>558243.625</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3510,46 +3510,46 @@
         <v>281015</v>
       </c>
       <c r="D9">
-        <v>293197.1875</v>
+        <v>253888.96875</v>
       </c>
       <c r="E9">
-        <v>253888.96875</v>
+        <v>261391.78125</v>
       </c>
       <c r="F9">
-        <v>259837.59375</v>
+        <v>212390.6875</v>
       </c>
       <c r="G9">
-        <v>258203.109375</v>
+        <v>232122.328125</v>
       </c>
       <c r="H9">
-        <v>106008.640625</v>
+        <v>259836.671875</v>
       </c>
       <c r="I9">
-        <v>750561.875</v>
+        <v>221045.859375</v>
       </c>
       <c r="J9">
-        <v>52413.109375</v>
+        <v>208750.8125</v>
       </c>
       <c r="K9">
-        <v>56304.78125</v>
+        <v>381977.21875</v>
       </c>
       <c r="L9">
-        <v>510525.34375</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M9">
-        <v>32571.134765625</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N9">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O9">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P9">
-        <v>1.675988823990338E-05</v>
+        <v>595850.6875</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1037540.3125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3563,46 +3563,46 @@
         <v>324842</v>
       </c>
       <c r="D10">
-        <v>302183.84375</v>
+        <v>264304.25</v>
       </c>
       <c r="E10">
-        <v>264304.25</v>
+        <v>306493.125</v>
       </c>
       <c r="F10">
-        <v>216301.03125</v>
+        <v>274572.875</v>
       </c>
       <c r="G10">
-        <v>200367.640625</v>
+        <v>280360.21875</v>
       </c>
       <c r="H10">
-        <v>88467.4453125</v>
+        <v>216300.9375</v>
       </c>
       <c r="I10">
-        <v>316721.09375</v>
+        <v>254143.234375</v>
       </c>
       <c r="J10">
-        <v>71726.0390625</v>
+        <v>262476.4375</v>
       </c>
       <c r="K10">
-        <v>82930.25</v>
+        <v>434009.59375</v>
       </c>
       <c r="L10">
-        <v>469722.0625</v>
+        <v>93781.6484375</v>
       </c>
       <c r="M10">
-        <v>41396.54296875</v>
+        <v>79119.71869047621</v>
       </c>
       <c r="N10">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O10">
-        <v>274.4144679675883</v>
+        <v>93240.06170813664</v>
       </c>
       <c r="P10">
-        <v>1.675988823990338E-05</v>
+        <v>741533.875</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>798970.125</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3616,46 +3616,46 @@
         <v>240495</v>
       </c>
       <c r="D11">
-        <v>311607.6875</v>
+        <v>260594.359375</v>
       </c>
       <c r="E11">
-        <v>260594.359375</v>
+        <v>220061.3125</v>
       </c>
       <c r="F11">
-        <v>205469.828125</v>
+        <v>223359.359375</v>
       </c>
       <c r="G11">
-        <v>187452.09375</v>
+        <v>188764.71875</v>
       </c>
       <c r="H11">
-        <v>65201.57421875</v>
+        <v>205470.296875</v>
       </c>
       <c r="I11">
-        <v>-155165.484375</v>
+        <v>141742.828125</v>
       </c>
       <c r="J11">
-        <v>29893.1875</v>
+        <v>198991.015625</v>
       </c>
       <c r="K11">
-        <v>13744.318359375</v>
+        <v>531486.5625</v>
       </c>
       <c r="L11">
-        <v>541610.3125</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M11">
-        <v>6776.35400390625</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N11">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O11">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P11">
-        <v>1.675988823990338E-05</v>
+        <v>511780.21875</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>844907.625</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3669,46 +3669,46 @@
         <v>251132</v>
       </c>
       <c r="D12">
-        <v>321471.71875</v>
+        <v>268629.65625</v>
       </c>
       <c r="E12">
-        <v>268629.65625</v>
+        <v>221991.109375</v>
       </c>
       <c r="F12">
-        <v>380440.96875</v>
+        <v>215410.484375</v>
       </c>
       <c r="G12">
-        <v>188413.1875</v>
+        <v>196642.890625</v>
       </c>
       <c r="H12">
-        <v>36864.73046875</v>
+        <v>380441.46875</v>
       </c>
       <c r="I12">
-        <v>417987.8125</v>
+        <v>160346.8125</v>
       </c>
       <c r="J12">
-        <v>11328.9541015625</v>
+        <v>189197.625</v>
       </c>
       <c r="K12">
-        <v>12662.619140625</v>
+        <v>782335.8125</v>
       </c>
       <c r="L12">
-        <v>487524.25</v>
+        <v>124596.4921875</v>
       </c>
       <c r="M12">
-        <v>965.8702392578125</v>
+        <v>111147.6066666667</v>
       </c>
       <c r="N12">
-        <v>-2227.829701201015</v>
+        <v>8299.322232353483</v>
       </c>
       <c r="O12">
-        <v>2094.105279867603</v>
+        <v>63521.99198744916</v>
       </c>
       <c r="P12">
-        <v>1.675988823990338E-05</v>
+        <v>671884.3125</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>251830.578125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3722,46 +3722,46 @@
         <v>319320</v>
       </c>
       <c r="D13">
-        <v>331773.28125</v>
+        <v>262983.25</v>
       </c>
       <c r="E13">
-        <v>262983.25</v>
+        <v>260169.046875</v>
       </c>
       <c r="F13">
-        <v>511937.28125</v>
+        <v>237209.375</v>
       </c>
       <c r="G13">
-        <v>215686.3125</v>
+        <v>249962.671875</v>
       </c>
       <c r="H13">
-        <v>90302.34375</v>
+        <v>511937.1875</v>
       </c>
       <c r="I13">
-        <v>13583.1435546875</v>
+        <v>186752.859375</v>
       </c>
       <c r="J13">
-        <v>52169.765625</v>
+        <v>210810.75</v>
       </c>
       <c r="K13">
-        <v>70649.6796875</v>
+        <v>930828.9375</v>
       </c>
       <c r="L13">
-        <v>660091.5</v>
+        <v>-0.0001103652029996738</v>
       </c>
       <c r="M13">
-        <v>23516.900390625</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9435.351959965916</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O13">
-        <v>-26.6089360144324</v>
+        <v>219.3781135976387</v>
       </c>
       <c r="P13">
-        <v>1.675988823990338E-05</v>
+        <v>574282.1875</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1219615.625</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3775,46 +3775,46 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>342512.90625</v>
+        <v>261533.515625</v>
       </c>
       <c r="E14">
-        <v>261533.515625</v>
+        <v>223487.5</v>
       </c>
       <c r="F14">
+        <v>214213.96875</v>
+      </c>
+      <c r="G14">
+        <v>200395.28125</v>
+      </c>
+      <c r="H14">
         <v>605389.5625</v>
       </c>
-      <c r="G14">
-        <v>451195.6875</v>
-      </c>
-      <c r="H14">
-        <v>86602.6484375</v>
-      </c>
       <c r="I14">
-        <v>-339491.03125</v>
+        <v>124995.6953125</v>
       </c>
       <c r="J14">
-        <v>70673.671875</v>
+        <v>206693.53125</v>
       </c>
       <c r="K14">
-        <v>75544.4375</v>
+        <v>735544</v>
       </c>
       <c r="L14">
-        <v>607362.0625</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M14">
-        <v>31770.2421875</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N14">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O14">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P14">
-        <v>1.675988823990338E-05</v>
+        <v>841963.1875</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1012335.375</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>353691.5625</v>
+        <v>260116.125</v>
       </c>
       <c r="E15">
-        <v>260116.125</v>
+        <v>214264.140625</v>
       </c>
       <c r="F15">
+        <v>167179.984375</v>
+      </c>
+      <c r="G15">
+        <v>161395.125</v>
+      </c>
+      <c r="H15">
         <v>539760.0625</v>
       </c>
-      <c r="G15">
-        <v>709406.25</v>
-      </c>
-      <c r="H15">
-        <v>71835.40625</v>
-      </c>
       <c r="I15">
-        <v>-7031.55615234375</v>
+        <v>52010.37109375</v>
       </c>
       <c r="J15">
-        <v>72641.0625</v>
+        <v>158348.71875</v>
       </c>
       <c r="K15">
-        <v>82788.578125</v>
+        <v>568506.1875</v>
       </c>
       <c r="L15">
-        <v>509446.5</v>
+        <v>3869.2529296875</v>
       </c>
       <c r="M15">
-        <v>7272.11181640625</v>
+        <v>6131.841583333335</v>
       </c>
       <c r="N15">
-        <v>7733.383745994147</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O15">
-        <v>-134.1227746565346</v>
+        <v>4120.270370891292</v>
       </c>
       <c r="P15">
-        <v>1.675988823990338E-05</v>
+        <v>1477321.375</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>647007.1875</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3881,46 +3881,46 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>365307.90625</v>
+        <v>295795.96875</v>
       </c>
       <c r="E16">
-        <v>295795.96875</v>
+        <v>197636.328125</v>
       </c>
       <c r="F16">
-        <v>215429.96875</v>
+        <v>158778.375</v>
       </c>
       <c r="G16">
-        <v>24219.5703125</v>
+        <v>129769.4765625</v>
       </c>
       <c r="H16">
-        <v>34278.45703125</v>
+        <v>215430.0625</v>
       </c>
       <c r="I16">
-        <v>1467267</v>
+        <v>47774.75</v>
       </c>
       <c r="J16">
-        <v>5716.38720703125</v>
+        <v>135270.765625</v>
       </c>
       <c r="K16">
-        <v>10875.7998046875</v>
+        <v>682444.125</v>
       </c>
       <c r="L16">
-        <v>442403.96875</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M16">
-        <v>4792.41748046875</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N16">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O16">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P16">
-        <v>1.675988823990338E-05</v>
+        <v>998795.625</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>295522.125</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3934,46 +3934,46 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>377362.34375</v>
+        <v>270018.3125</v>
       </c>
       <c r="E17">
-        <v>270018.3125</v>
+        <v>216404.234375</v>
       </c>
       <c r="F17">
-        <v>-16727.140625</v>
+        <v>193467.15625</v>
       </c>
       <c r="G17">
-        <v>415.3948669433594</v>
+        <v>151458.1875</v>
       </c>
       <c r="H17">
-        <v>1959.380859375</v>
+        <v>-16727.138671875</v>
       </c>
       <c r="I17">
-        <v>590535.625</v>
+        <v>45408.3046875</v>
       </c>
       <c r="J17">
-        <v>1673.882690429688</v>
+        <v>159849.96875</v>
       </c>
       <c r="K17">
-        <v>2024.740478515625</v>
+        <v>913392.6875</v>
       </c>
       <c r="L17">
-        <v>276046</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M17">
-        <v>-1103.826538085938</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N17">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O17">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P17">
-        <v>1.675988823990338E-05</v>
+        <v>1147164.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1721553.625</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3987,46 +3987,46 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>389855.28125</v>
+        <v>270940.875</v>
       </c>
       <c r="E18">
-        <v>270940.875</v>
+        <v>232819.375</v>
       </c>
       <c r="F18">
-        <v>-42.35030364990234</v>
+        <v>231537.234375</v>
       </c>
       <c r="G18">
-        <v>3078.094482421875</v>
+        <v>144162.40625</v>
       </c>
       <c r="H18">
-        <v>30902.1484375</v>
+        <v>-42.22620391845703</v>
       </c>
       <c r="I18">
-        <v>-615146.75</v>
+        <v>42286.296875</v>
       </c>
       <c r="J18">
-        <v>14475.5498046875</v>
+        <v>176548.65625</v>
       </c>
       <c r="K18">
-        <v>11832.369140625</v>
+        <v>1088782.375</v>
       </c>
       <c r="L18">
-        <v>423642.34375</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M18">
-        <v>10509.2138671875</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N18">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O18">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P18">
-        <v>1.675988823990338E-05</v>
+        <v>2285151.75</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-219739.515625</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4040,46 +4040,46 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>402786.4375</v>
+        <v>269025.375</v>
       </c>
       <c r="E19">
-        <v>269025.375</v>
+        <v>206242.65625</v>
       </c>
       <c r="F19">
-        <v>-11589.49609375</v>
+        <v>202952.765625</v>
       </c>
       <c r="G19">
-        <v>2450.18701171875</v>
+        <v>104195.8515625</v>
       </c>
       <c r="H19">
-        <v>21605.30078125</v>
+        <v>-11589.3388671875</v>
       </c>
       <c r="I19">
-        <v>409365.15625</v>
+        <v>2927.4921875</v>
       </c>
       <c r="J19">
-        <v>27092.05078125</v>
+        <v>156447.125</v>
       </c>
       <c r="K19">
-        <v>4423.89697265625</v>
+        <v>1264172.25</v>
       </c>
       <c r="L19">
-        <v>510235.5625</v>
+        <v>17443.666015625</v>
       </c>
       <c r="M19">
-        <v>1659.610961914062</v>
+        <v>18668.47320818799</v>
       </c>
       <c r="N19">
-        <v>999.2977754704466</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O19">
-        <v>2.13291095841123</v>
+        <v>17413.94599634545</v>
       </c>
       <c r="P19">
-        <v>1.675988823990338E-05</v>
+        <v>1354811</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>338027.28125</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4093,46 +4093,46 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>416156.8125</v>
+        <v>271081.125</v>
       </c>
       <c r="E20">
-        <v>271081.125</v>
+        <v>244656.640625</v>
       </c>
       <c r="F20">
-        <v>-131284.109375</v>
+        <v>172819.8125</v>
       </c>
       <c r="G20">
-        <v>11806.2626953125</v>
+        <v>134169.015625</v>
       </c>
       <c r="H20">
-        <v>5423.58740234375</v>
+        <v>-131283.984375</v>
       </c>
       <c r="I20">
-        <v>736990.0625</v>
+        <v>4277.541015625</v>
       </c>
       <c r="J20">
-        <v>6013.8388671875</v>
+        <v>154546.125</v>
       </c>
       <c r="K20">
-        <v>-345.6426696777344</v>
+        <v>1538455.625</v>
       </c>
       <c r="L20">
-        <v>338767.46875</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M20">
-        <v>-927.9288940429688</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N20">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O20">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P20">
-        <v>1.675988823990338E-05</v>
+        <v>2478196</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1404133</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>429964.28125</v>
+        <v>269341</v>
       </c>
       <c r="E21">
-        <v>269341</v>
+        <v>289957.5625</v>
       </c>
       <c r="F21">
-        <v>91481.421875</v>
+        <v>192368.015625</v>
       </c>
       <c r="G21">
-        <v>1300.401489257812</v>
+        <v>152854.6875</v>
       </c>
       <c r="H21">
-        <v>2971.40966796875</v>
+        <v>91481.71875</v>
       </c>
       <c r="I21">
-        <v>1350790.875</v>
+        <v>4253.5595703125</v>
       </c>
       <c r="J21">
-        <v>4062.241455078125</v>
+        <v>151969.703125</v>
       </c>
       <c r="K21">
-        <v>3446.224609375</v>
+        <v>1684936.625</v>
       </c>
       <c r="L21">
-        <v>203357.21875</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M21">
-        <v>-3268.986083984375</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N21">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O21">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P21">
-        <v>1.675988823990338E-05</v>
+        <v>2116925</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1422230.875</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4199,46 +4199,46 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>444210.59375</v>
+        <v>282276.09375</v>
       </c>
       <c r="E22">
-        <v>282276.09375</v>
+        <v>311140.6875</v>
       </c>
       <c r="F22">
-        <v>57529.55078125</v>
+        <v>231530.5</v>
       </c>
       <c r="G22">
-        <v>22492.181640625</v>
+        <v>197752.890625</v>
       </c>
       <c r="H22">
-        <v>14300.9423828125</v>
+        <v>57529.48828125</v>
       </c>
       <c r="I22">
-        <v>-546331.625</v>
+        <v>8114.38623046875</v>
       </c>
       <c r="J22">
-        <v>11591.193359375</v>
+        <v>229889.515625</v>
       </c>
       <c r="K22">
-        <v>5923.0712890625</v>
+        <v>1914364.875</v>
       </c>
       <c r="L22">
-        <v>147983.296875</v>
+        <v>17443.666015625</v>
       </c>
       <c r="M22">
-        <v>8221.716796875</v>
+        <v>18668.47320818799</v>
       </c>
       <c r="N22">
-        <v>999.2977754704466</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O22">
-        <v>2.13291095841123</v>
+        <v>17413.94599634545</v>
       </c>
       <c r="P22">
-        <v>1.675988823990338E-05</v>
+        <v>2027911.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1299620.125</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4252,46 +4252,46 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>458895.53125</v>
+        <v>271262.84375</v>
       </c>
       <c r="E23">
-        <v>271262.84375</v>
+        <v>309393.59375</v>
       </c>
       <c r="F23">
-        <v>-10344.689453125</v>
+        <v>256550.78125</v>
       </c>
       <c r="G23">
-        <v>33845.30859375</v>
+        <v>190585.171875</v>
       </c>
       <c r="H23">
-        <v>7036.3876953125</v>
+        <v>-10344.34375</v>
       </c>
       <c r="I23">
-        <v>775914.25</v>
+        <v>12397.94140625</v>
       </c>
       <c r="J23">
-        <v>8200.0908203125</v>
+        <v>251049.296875</v>
       </c>
       <c r="K23">
-        <v>2217.43505859375</v>
+        <v>2153277.5</v>
       </c>
       <c r="L23">
-        <v>-86550.234375</v>
+        <v>17443.666015625</v>
       </c>
       <c r="M23">
-        <v>4511.0615234375</v>
+        <v>18668.47320818799</v>
       </c>
       <c r="N23">
-        <v>999.2977754704466</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O23">
-        <v>2.13291095841123</v>
+        <v>17413.94599634545</v>
       </c>
       <c r="P23">
-        <v>1.675988823990338E-05</v>
+        <v>2946254.5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>836818</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4305,46 +4305,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>474018.40625</v>
+        <v>272525.59375</v>
       </c>
       <c r="E24">
-        <v>272525.59375</v>
+        <v>384146.84375</v>
       </c>
       <c r="F24">
-        <v>-114066.0546875</v>
+        <v>327051.15625</v>
       </c>
       <c r="G24">
-        <v>17640.23828125</v>
+        <v>238524.296875</v>
       </c>
       <c r="H24">
-        <v>16048.3291015625</v>
+        <v>-114065.796875</v>
       </c>
       <c r="I24">
-        <v>-222175.015625</v>
+        <v>30091.958984375</v>
       </c>
       <c r="J24">
-        <v>20744.7734375</v>
+        <v>259536.40625</v>
       </c>
       <c r="K24">
-        <v>5144.3974609375</v>
+        <v>2320121</v>
       </c>
       <c r="L24">
-        <v>245504.890625</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M24">
-        <v>22541.388671875</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N24">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O24">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P24">
-        <v>1.675988823990338E-05</v>
+        <v>2290581.5</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3095319.5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>489579.78125</v>
+        <v>281394.75</v>
       </c>
       <c r="E25">
-        <v>281394.75</v>
+        <v>399403.09375</v>
       </c>
       <c r="F25">
-        <v>12468.0283203125</v>
+        <v>317938.25</v>
       </c>
       <c r="G25">
-        <v>-13590.6259765625</v>
+        <v>255184.328125</v>
       </c>
       <c r="H25">
-        <v>-1086.557373046875</v>
+        <v>12468.2119140625</v>
       </c>
       <c r="I25">
-        <v>759823.25</v>
+        <v>54754.9453125</v>
       </c>
       <c r="J25">
-        <v>17193.337890625</v>
+        <v>301520.46875</v>
       </c>
       <c r="K25">
-        <v>-334.1646423339844</v>
+        <v>2744377.5</v>
       </c>
       <c r="L25">
-        <v>765856.1875</v>
+        <v>93232.3671875</v>
       </c>
       <c r="M25">
-        <v>5287.134765625</v>
+        <v>88709.41666357251</v>
       </c>
       <c r="N25">
-        <v>9435.351959965916</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O25">
-        <v>-137.798412031545</v>
+        <v>93097.20900357448</v>
       </c>
       <c r="P25">
-        <v>1.675988823990338E-05</v>
+        <v>2461627</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2134825.25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4411,46 +4411,46 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>505578.84375</v>
+        <v>277069.71875</v>
       </c>
       <c r="E26">
-        <v>277069.71875</v>
+        <v>406969.65625</v>
       </c>
       <c r="F26">
-        <v>-19118.822265625</v>
+        <v>317552.46875</v>
       </c>
       <c r="G26">
-        <v>-9697.017578125</v>
+        <v>303153.90625</v>
       </c>
       <c r="H26">
-        <v>1048.742309570312</v>
+        <v>-19117.798828125</v>
       </c>
       <c r="I26">
-        <v>240308.96875</v>
+        <v>71802.5</v>
       </c>
       <c r="J26">
-        <v>12222.015625</v>
+        <v>320801.625</v>
       </c>
       <c r="K26">
-        <v>1250.018310546875</v>
+        <v>3096892.5</v>
       </c>
       <c r="L26">
-        <v>801656.5</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M26">
-        <v>2988.098388671875</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N26">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O26">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P26">
-        <v>1.675988823990338E-05</v>
+        <v>2853773.5</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2518926.25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4464,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>522016.5</v>
+        <v>280205.03125</v>
       </c>
       <c r="E27">
-        <v>280205.03125</v>
+        <v>407173.46875</v>
       </c>
       <c r="F27">
-        <v>-13792.9384765625</v>
+        <v>365407.25</v>
       </c>
       <c r="G27">
-        <v>-4568.42724609375</v>
+        <v>297623.375</v>
       </c>
       <c r="H27">
-        <v>5924.20849609375</v>
+        <v>-13792.8828125</v>
       </c>
       <c r="I27">
-        <v>317804.5</v>
+        <v>105720.03125</v>
       </c>
       <c r="J27">
-        <v>24077.837890625</v>
+        <v>360501.90625</v>
       </c>
       <c r="K27">
-        <v>6460.35595703125</v>
+        <v>3411825.75</v>
       </c>
       <c r="L27">
-        <v>756331.625</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M27">
-        <v>24746.34375</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N27">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O27">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P27">
-        <v>1.675988823990338E-05</v>
+        <v>1752480</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2272679.5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>538892.8125</v>
+        <v>280058.90625</v>
       </c>
       <c r="E28">
-        <v>280058.90625</v>
+        <v>413257</v>
       </c>
       <c r="F28">
-        <v>-72888.3203125</v>
+        <v>390617.40625</v>
       </c>
       <c r="G28">
-        <v>6201.00732421875</v>
+        <v>259590.3125</v>
       </c>
       <c r="H28">
-        <v>-1983.8740234375</v>
+        <v>-72888.140625</v>
       </c>
       <c r="I28">
-        <v>579934.0625</v>
+        <v>154560</v>
       </c>
       <c r="J28">
-        <v>6867.0029296875</v>
+        <v>370387.78125</v>
       </c>
       <c r="K28">
-        <v>11956.875</v>
+        <v>3704341.25</v>
       </c>
       <c r="L28">
-        <v>766039.0625</v>
+        <v>3869.2529296875</v>
       </c>
       <c r="M28">
-        <v>8081.0361328125</v>
+        <v>6131.841583333335</v>
       </c>
       <c r="N28">
-        <v>7733.383745994147</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O28">
-        <v>-134.1227746565346</v>
+        <v>4120.270370891292</v>
       </c>
       <c r="P28">
-        <v>1.675988823990338E-05</v>
+        <v>2903711.5</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3604073.75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4570,46 +4570,46 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>556207.125</v>
+        <v>276079.65625</v>
       </c>
       <c r="E29">
-        <v>276079.65625</v>
+        <v>499735.5</v>
       </c>
       <c r="F29">
-        <v>-58135.453125</v>
+        <v>410945.3125</v>
       </c>
       <c r="G29">
-        <v>-12682.3603515625</v>
+        <v>307994.65625</v>
       </c>
       <c r="H29">
-        <v>-721.1799926757812</v>
+        <v>-58135.75</v>
       </c>
       <c r="I29">
-        <v>-74985.9765625</v>
+        <v>234643.5625</v>
       </c>
       <c r="J29">
-        <v>2088.867919921875</v>
+        <v>363945.4375</v>
       </c>
       <c r="K29">
-        <v>-633.0286865234375</v>
+        <v>4020140</v>
       </c>
       <c r="L29">
-        <v>787118.0625</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M29">
-        <v>-883.172607421875</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N29">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O29">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P29">
-        <v>1.675988823990338E-05</v>
+        <v>3287684.75</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>4177213.5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4623,46 +4623,46 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>573960.25</v>
+        <v>279958.46875</v>
       </c>
       <c r="E30">
-        <v>279958.46875</v>
+        <v>533545.9375</v>
       </c>
       <c r="F30">
-        <v>39849.1171875</v>
+        <v>455036.78125</v>
       </c>
       <c r="G30">
-        <v>-13444.8583984375</v>
+        <v>311287.75</v>
       </c>
       <c r="H30">
-        <v>-2615.26123046875</v>
+        <v>39850.26171875</v>
       </c>
       <c r="I30">
-        <v>-625919.125</v>
+        <v>319607.1875</v>
       </c>
       <c r="J30">
-        <v>8475.7333984375</v>
+        <v>357227.84375</v>
       </c>
       <c r="K30">
-        <v>475.0315246582031</v>
+        <v>4501229.5</v>
       </c>
       <c r="L30">
-        <v>811292.9375</v>
+        <v>-0.0001103652029996738</v>
       </c>
       <c r="M30">
-        <v>7921.21875</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>9435.351959965916</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O30">
-        <v>-26.6089360144324</v>
+        <v>219.3781135976387</v>
       </c>
       <c r="P30">
-        <v>1.675988823990338E-05</v>
+        <v>2846335.25</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2652266.75</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4676,46 +4676,46 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>592151.375</v>
+        <v>282300.21875</v>
       </c>
       <c r="E31">
-        <v>282300.21875</v>
+        <v>609428.875</v>
       </c>
       <c r="F31">
-        <v>-170830.703125</v>
+        <v>489892.3125</v>
       </c>
       <c r="G31">
-        <v>11775.0390625</v>
+        <v>407020.1875</v>
       </c>
       <c r="H31">
-        <v>4929.3720703125</v>
+        <v>-170830.6875</v>
       </c>
       <c r="I31">
-        <v>809296.8125</v>
+        <v>364586.40625</v>
       </c>
       <c r="J31">
-        <v>13969.1064453125</v>
+        <v>431881</v>
       </c>
       <c r="K31">
-        <v>13993.455078125</v>
+        <v>5061269</v>
       </c>
       <c r="L31">
-        <v>784212.0625</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M31">
-        <v>14542.0908203125</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N31">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O31">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P31">
-        <v>1.675988823990338E-05</v>
+        <v>3608389.75</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>3146541.5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>610780.375</v>
+        <v>285367.8125</v>
       </c>
       <c r="E32">
-        <v>285367.8125</v>
+        <v>557805.125</v>
       </c>
       <c r="F32">
-        <v>30167.029296875</v>
+        <v>443391.65625</v>
       </c>
       <c r="G32">
-        <v>8674.1884765625</v>
+        <v>331411.375</v>
       </c>
       <c r="H32">
-        <v>777.4833374023438</v>
+        <v>30167.21875</v>
       </c>
       <c r="I32">
-        <v>-145632.984375</v>
+        <v>438124.25</v>
       </c>
       <c r="J32">
-        <v>3448.705078125</v>
+        <v>393583.59375</v>
       </c>
       <c r="K32">
-        <v>2615.769775390625</v>
+        <v>5586601</v>
       </c>
       <c r="L32">
-        <v>809658</v>
+        <v>13.33463096618652</v>
       </c>
       <c r="M32">
-        <v>1026.26708984375</v>
+        <v>34469.09814285714</v>
       </c>
       <c r="N32">
-        <v>7733.383745994147</v>
+        <v>48918.08766101301</v>
       </c>
       <c r="O32">
-        <v>-272.0042962039006</v>
+        <v>23559.65406816762</v>
       </c>
       <c r="P32">
-        <v>1.675988823990338E-05</v>
+        <v>2645472.75</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2613694</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4782,46 +4782,46 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>629848.5</v>
+        <v>283862.28125</v>
       </c>
       <c r="E33">
-        <v>283862.28125</v>
+        <v>629123.0625</v>
       </c>
       <c r="F33">
-        <v>16570.443359375</v>
+        <v>501993.78125</v>
       </c>
       <c r="G33">
-        <v>-8924.6875</v>
+        <v>416752.28125</v>
       </c>
       <c r="H33">
-        <v>51.2628173828125</v>
+        <v>16570.638671875</v>
       </c>
       <c r="I33">
-        <v>-61400.328125</v>
+        <v>541440.3125</v>
       </c>
       <c r="J33">
-        <v>4402.75244140625</v>
+        <v>551179</v>
       </c>
       <c r="K33">
-        <v>6679.0400390625</v>
+        <v>5872182</v>
       </c>
       <c r="L33">
-        <v>873363.125</v>
+        <v>17175.771484375</v>
       </c>
       <c r="M33">
-        <v>2544.110595703125</v>
+        <v>16457.7111876729</v>
       </c>
       <c r="N33">
-        <v>2486.132475561078</v>
+        <v>24719.16228565901</v>
       </c>
       <c r="O33">
-        <v>-27.31726220405108</v>
+        <v>17166.10517476763</v>
       </c>
       <c r="P33">
-        <v>1.675988823990338E-05</v>
+        <v>2703653</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2873297.5</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4835,46 +4835,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>649354.3125</v>
+        <v>283708.90625</v>
       </c>
       <c r="E34">
-        <v>283708.90625</v>
+        <v>608525.25</v>
       </c>
       <c r="F34">
-        <v>-75457.390625</v>
+        <v>486229.75</v>
       </c>
       <c r="G34">
-        <v>-22962.54296875</v>
+        <v>397672.5625</v>
       </c>
       <c r="H34">
-        <v>-4348.9873046875</v>
+        <v>-75457.578125</v>
       </c>
       <c r="I34">
-        <v>-1247700.875</v>
+        <v>538499.0625</v>
       </c>
       <c r="J34">
-        <v>3849.406982421875</v>
+        <v>542963.4375</v>
       </c>
       <c r="K34">
-        <v>1366.74169921875</v>
+        <v>5927296</v>
       </c>
       <c r="L34">
-        <v>861345.0625</v>
+        <v>47946.57421875</v>
       </c>
       <c r="M34">
-        <v>314.4286499023438</v>
+        <v>48045.32159973319</v>
       </c>
       <c r="N34">
-        <v>4904.509688946855</v>
+        <v>46137.36454576925</v>
       </c>
       <c r="O34">
-        <v>14.05522929095605</v>
+        <v>47943.19489557576</v>
       </c>
       <c r="P34">
-        <v>1.675988823990338E-05</v>
+        <v>3659665.5</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>4307618</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>15459628606.14876</v>
@@ -4941,106 +4941,106 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>13693603864.09001</v>
+        <v>17660113635.66435</v>
       </c>
       <c r="C3">
-        <v>117019.6729789056</v>
+        <v>132891.3602747159</v>
       </c>
       <c r="D3">
-        <v>0.04979256272985122</v>
+        <v>0.07359077591299544</v>
       </c>
       <c r="E3">
-        <v>66286.47916666667</v>
+        <v>82656.27864583333</v>
       </c>
       <c r="F3">
-        <v>0.1684373712603118</v>
+        <v>0.213220752879377</v>
       </c>
       <c r="G3">
-        <v>34554.234375</v>
+        <v>46074.0703125</v>
       </c>
       <c r="H3">
-        <v>0.1128481529325434</v>
+        <v>0.164123826568801</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>17752711135.48393</v>
+        <v>33933885655.04655</v>
       </c>
       <c r="C4">
-        <v>133239.3002664151</v>
+        <v>184211.5242188896</v>
       </c>
       <c r="D4">
-        <v>0.07378690158169153</v>
+        <v>0.1834610746345605</v>
       </c>
       <c r="E4">
-        <v>82710.47916666667</v>
+        <v>146853.6197916667</v>
       </c>
       <c r="F4">
-        <v>0.2131856209522195</v>
+        <v>0.4110837920690953</v>
       </c>
       <c r="G4">
-        <v>46028.109375</v>
+        <v>111416.0625</v>
       </c>
       <c r="H4">
-        <v>0.1639550885077123</v>
+        <v>0.3770544696810584</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>30893426881.73615</v>
+        <v>37690005140.17776</v>
       </c>
       <c r="C5">
-        <v>175765.2607364042</v>
+        <v>194139.1386098583</v>
       </c>
       <c r="D5">
-        <v>0.1197919022929487</v>
+        <v>0.1899037225098458</v>
       </c>
       <c r="E5">
-        <v>101512.892578125</v>
+        <v>149840.4700520833</v>
       </c>
       <c r="F5">
-        <v>0.2589763287648628</v>
+        <v>0.4116425062725853</v>
       </c>
       <c r="G5">
-        <v>61505.09375</v>
+        <v>120321.5859375</v>
       </c>
       <c r="H5">
-        <v>0.2012211136911218</v>
+        <v>0.3772320489392784</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>22376444613.18321</v>
+        <v>34182526667.45855</v>
       </c>
       <c r="C6">
-        <v>149587.5817478951</v>
+        <v>184885.1715726779</v>
       </c>
       <c r="D6">
-        <v>0.1596946362222253</v>
+        <v>0.1981508026271239</v>
       </c>
       <c r="E6">
-        <v>123196.01171875</v>
+        <v>148082.68359375</v>
       </c>
       <c r="F6">
-        <v>0.3616235379454729</v>
+        <v>0.4158220356019349</v>
       </c>
       <c r="G6">
-        <v>112690.4296875</v>
+        <v>121323.5546875</v>
       </c>
       <c r="H6">
-        <v>0.3936884156317246</v>
+        <v>0.3802344227279915</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5048,25 +5048,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>37144913659.37833</v>
+        <v>38299489869.50344</v>
       </c>
       <c r="C7">
-        <v>192730.1576281676</v>
+        <v>195702.554580934</v>
       </c>
       <c r="D7">
-        <v>0.2411663425625084</v>
+        <v>0.2410530477325552</v>
       </c>
       <c r="E7">
-        <v>167031.6901041667</v>
+        <v>166993.1595052083</v>
       </c>
       <c r="F7">
-        <v>0.4828063493953764</v>
+        <v>0.4792985862492491</v>
       </c>
       <c r="G7">
-        <v>148205.2265625</v>
+        <v>133518.03125</v>
       </c>
       <c r="H7">
-        <v>0.4937686766019569</v>
+        <v>0.4671180632515541</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5074,51 +5074,51 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>68874382501.78162</v>
+        <v>41950739560.74258</v>
       </c>
       <c r="C8">
-        <v>262439.2929836948</v>
+        <v>204818.7968931137</v>
       </c>
       <c r="D8">
-        <v>0.5524197220047274</v>
+        <v>0.2557135798882624</v>
       </c>
       <c r="E8">
-        <v>243405.0192057292</v>
+        <v>171653.900390625</v>
       </c>
       <c r="F8">
-        <v>0.7285578250813441</v>
+        <v>0.489160109177004</v>
       </c>
       <c r="G8">
-        <v>228521.9765625</v>
+        <v>150225.78125</v>
       </c>
       <c r="H8">
-        <v>0.7644351488678487</v>
+        <v>0.5079754354271587</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>72872957703.04259</v>
+        <v>95821187144.75378</v>
       </c>
       <c r="C9">
-        <v>269949.9170272934</v>
+        <v>309549.9751974692</v>
       </c>
       <c r="D9">
-        <v>0.5829746502837059</v>
+        <v>0.7741063798637723</v>
       </c>
       <c r="E9">
-        <v>251182.6170247396</v>
+        <v>291184.850484566</v>
       </c>
       <c r="F9">
-        <v>0.7524988687666005</v>
+        <v>0.8766523831960681</v>
       </c>
       <c r="G9">
-        <v>235334.892578125</v>
+        <v>268353.0647736827</v>
       </c>
       <c r="H9">
-        <v>0.782091697879457</v>
+        <v>0.8566500010341467</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5126,155 +5126,155 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>82329349220.25734</v>
+        <v>94863155279.52361</v>
       </c>
       <c r="C10">
-        <v>286930.913671318</v>
+        <v>307998.6286974726</v>
       </c>
       <c r="D10">
-        <v>0.6887805426701564</v>
+        <v>0.7565672642363895</v>
       </c>
       <c r="E10">
-        <v>269132.0404052734</v>
+        <v>289135.9638270825</v>
       </c>
       <c r="F10">
-        <v>0.8126416400589181</v>
+        <v>0.8683665439504349</v>
       </c>
       <c r="G10">
-        <v>263576.138671875</v>
+        <v>262880.0584843064</v>
       </c>
       <c r="H10">
-        <v>0.8836725706256491</v>
+        <v>0.8654419066231005</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>119555520768.1927</v>
+        <v>96819238747.43153</v>
       </c>
       <c r="C11">
-        <v>345768.0158259186</v>
+        <v>311157.9000241381</v>
       </c>
       <c r="D11">
-        <v>0.9801046481919382</v>
+        <v>0.7837495471330569</v>
       </c>
       <c r="E11">
-        <v>327830.0294808475</v>
+        <v>292782.5996700166</v>
       </c>
       <c r="F11">
-        <v>0.9899649772614262</v>
+        <v>0.8816186213657211</v>
       </c>
       <c r="G11">
-        <v>296025.2540717578</v>
+        <v>268315.423828125</v>
       </c>
       <c r="H11">
-        <v>0.9870879487569499</v>
+        <v>0.8567028746289769</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>121983815994.0209</v>
+        <v>96472560558.72404</v>
       </c>
       <c r="C12">
-        <v>349261.8158259229</v>
+        <v>310600.3228567608</v>
       </c>
       <c r="D12">
-        <v>0.9999999915326644</v>
+        <v>0.7835993633377787</v>
       </c>
       <c r="E12">
-        <v>331206.7486819979</v>
+        <v>292712.4448686925</v>
       </c>
       <c r="F12">
-        <v>0.9999999957663324</v>
+        <v>0.8820700983753486</v>
       </c>
       <c r="G12">
-        <v>300686.9986819979</v>
+        <v>269039.1078503163</v>
       </c>
       <c r="H12">
-        <v>0.9999999956151846</v>
+        <v>0.8689364635037147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>121983816867.0833</v>
+        <v>97797812495.75377</v>
       </c>
       <c r="C13">
-        <v>349261.8170757911</v>
+        <v>312726.4179690513</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.04873454641463</v>
       </c>
       <c r="E13">
-        <v>331206.75</v>
+        <v>290794.69921875</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.922056813396531</v>
       </c>
       <c r="G13">
-        <v>300687</v>
+        <v>269212.125</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.8448859029904434</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>122040588935.865</v>
+        <v>553062051953.749</v>
       </c>
       <c r="C14">
-        <v>349343.0819922802</v>
+        <v>743681.4183195308</v>
       </c>
       <c r="D14">
-        <v>1.00057873340462</v>
+        <v>6.163004371792684</v>
       </c>
       <c r="E14">
-        <v>331297.1031357435</v>
+        <v>598311.7411397299</v>
       </c>
       <c r="F14">
-        <v>1.00028918655906</v>
+        <v>1.918268965698092</v>
       </c>
       <c r="G14">
-        <v>300694.6421092439</v>
+        <v>509004.71875</v>
       </c>
       <c r="H14">
-        <v>1.000001560734029</v>
+        <v>1.359445219410745</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>269600040041.3049</v>
+        <v>929691672260.4388</v>
       </c>
       <c r="C15">
-        <v>519230.2379882213</v>
+        <v>964205.2023612187</v>
       </c>
       <c r="D15">
-        <v>2.670511187184726</v>
+        <v>11.16851123600244</v>
       </c>
       <c r="E15">
-        <v>391348.1531575521</v>
+        <v>712138.2892456055</v>
       </c>
       <c r="F15">
-        <v>1.225124815731593</v>
+        <v>2.323657744228003</v>
       </c>
       <c r="G15">
-        <v>372386.1923828125</v>
+        <v>339203.4584960938</v>
       </c>
       <c r="H15">
-        <v>1.087270157045086</v>
+        <v>1.04527323812258</v>
       </c>
     </row>
   </sheetData>
@@ -5301,19 +5301,19 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -5322,25 +5322,25 @@
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5357,43 +5357,43 @@
         <v>273565.71875</v>
       </c>
       <c r="E2">
-        <v>316879.40625</v>
+        <v>280299.9375</v>
       </c>
       <c r="F2">
-        <v>280573.9375</v>
+        <v>165891.546875</v>
       </c>
       <c r="G2">
-        <v>99186.1484375</v>
+        <v>143509.65625</v>
       </c>
       <c r="H2">
-        <v>378469.9375</v>
+        <v>191263.234375</v>
       </c>
       <c r="I2">
-        <v>170315.03125</v>
+        <v>133820.90625</v>
       </c>
       <c r="J2">
-        <v>161502.3125</v>
+        <v>182682.671875</v>
       </c>
       <c r="K2">
-        <v>138966.078125</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L2">
-        <v>150275.84375</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M2">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N2">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>380924.3125</v>
       </c>
       <c r="P2">
-        <v>34.17703378744045</v>
+        <v>1528667.5</v>
       </c>
       <c r="Q2">
-        <v>562572.25</v>
+        <v>-2787.313720703125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5410,43 +5410,43 @@
         <v>269914.75</v>
       </c>
       <c r="E3">
-        <v>313754.90625</v>
+        <v>283119.65625</v>
       </c>
       <c r="F3">
-        <v>281775.34375</v>
+        <v>183190.546875</v>
       </c>
       <c r="G3">
-        <v>135609.171875</v>
+        <v>144883.65625</v>
       </c>
       <c r="H3">
-        <v>330893.625</v>
+        <v>205465.65625</v>
       </c>
       <c r="I3">
-        <v>214629.6875</v>
+        <v>200277.453125</v>
       </c>
       <c r="J3">
-        <v>171100.609375</v>
+        <v>166415.609375</v>
       </c>
       <c r="K3">
-        <v>150350.21875</v>
+        <v>62818.23994872315</v>
       </c>
       <c r="L3">
-        <v>148552.84375</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M3">
-        <v>5206.712825385348</v>
+        <v>62824.4921875</v>
       </c>
       <c r="N3">
-        <v>0.001318002119660378</v>
+        <v>66171.72629936732</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>309507.09375</v>
       </c>
       <c r="P3">
-        <v>-0.5074208352525602</v>
+        <v>-362374.40625</v>
       </c>
       <c r="Q3">
-        <v>297050.5</v>
+        <v>24418.953125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5463,43 +5463,43 @@
         <v>276487.75</v>
       </c>
       <c r="E4">
-        <v>329593.8125</v>
+        <v>280650.65625</v>
       </c>
       <c r="F4">
-        <v>281042.9375</v>
+        <v>205901.59375</v>
       </c>
       <c r="G4">
-        <v>201945.9375</v>
+        <v>199636.3125</v>
       </c>
       <c r="H4">
-        <v>227177.390625</v>
+        <v>247164.21875</v>
       </c>
       <c r="I4">
-        <v>186711.28125</v>
+        <v>181962.65625</v>
       </c>
       <c r="J4">
-        <v>151990.8125</v>
+        <v>204390.46875</v>
       </c>
       <c r="K4">
-        <v>130679.2421875</v>
+        <v>40997.84494167498</v>
       </c>
       <c r="L4">
-        <v>118608.53125</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M4">
-        <v>6211.375442685946</v>
+        <v>40960.56640625</v>
       </c>
       <c r="N4">
-        <v>0.001318002119660378</v>
+        <v>37222.60897835496</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>570423.5</v>
       </c>
       <c r="P4">
-        <v>-20.95161391641886</v>
+        <v>-57280.0625</v>
       </c>
       <c r="Q4">
-        <v>223854.921875</v>
+        <v>45465.06640625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5516,43 +5516,43 @@
         <v>282261.625</v>
       </c>
       <c r="E5">
-        <v>321506.6875</v>
+        <v>270917.21875</v>
       </c>
       <c r="F5">
-        <v>271641.03125</v>
+        <v>191603.875</v>
       </c>
       <c r="G5">
-        <v>206475.125</v>
+        <v>198484.4375</v>
       </c>
       <c r="H5">
-        <v>175040.078125</v>
+        <v>193335.625</v>
       </c>
       <c r="I5">
-        <v>157898.8125</v>
+        <v>185816.359375</v>
       </c>
       <c r="J5">
-        <v>100793.09375</v>
+        <v>156561.140625</v>
       </c>
       <c r="K5">
-        <v>94233.9140625</v>
+        <v>42854.25917718716</v>
       </c>
       <c r="L5">
-        <v>104579.2578125</v>
+        <v>46337.47899174029</v>
       </c>
       <c r="M5">
-        <v>4913.024698765565</v>
+        <v>42860.2265625</v>
       </c>
       <c r="N5">
-        <v>0.001318002119660378</v>
+        <v>39438.05353010018</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>115271.859375</v>
       </c>
       <c r="P5">
-        <v>-40.67296193232323</v>
+        <v>265324.5625</v>
       </c>
       <c r="Q5">
-        <v>345010.53125</v>
+        <v>7141.876953125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5569,43 +5569,43 @@
         <v>281937.78125</v>
       </c>
       <c r="E6">
-        <v>327279.15625</v>
+        <v>301664.6875</v>
       </c>
       <c r="F6">
-        <v>301911.5</v>
+        <v>173570.5625</v>
       </c>
       <c r="G6">
-        <v>260466.9375</v>
+        <v>150601.515625</v>
       </c>
       <c r="H6">
-        <v>202460.40625</v>
+        <v>208662.75</v>
       </c>
       <c r="I6">
-        <v>190043.296875</v>
+        <v>137934.546875</v>
       </c>
       <c r="J6">
-        <v>103810.671875</v>
+        <v>151753.421875</v>
       </c>
       <c r="K6">
-        <v>103862.484375</v>
+        <v>62818.23994872315</v>
       </c>
       <c r="L6">
-        <v>87503.21875</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M6">
-        <v>5206.712825385348</v>
+        <v>62824.4921875</v>
       </c>
       <c r="N6">
-        <v>0.001318002119660378</v>
+        <v>66171.72629936732</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>83339.90625</v>
       </c>
       <c r="P6">
-        <v>-0.5074208352525602</v>
+        <v>1267.918823242188</v>
       </c>
       <c r="Q6">
-        <v>-25194.330078125</v>
+        <v>1706.9326171875</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5622,43 +5622,43 @@
         <v>281716.875</v>
       </c>
       <c r="E7">
-        <v>325556.375</v>
+        <v>216226.984375</v>
       </c>
       <c r="F7">
-        <v>216319.59375</v>
+        <v>192625.453125</v>
       </c>
       <c r="G7">
-        <v>325558.125</v>
+        <v>206263.109375</v>
       </c>
       <c r="H7">
-        <v>200975.703125</v>
+        <v>208264.921875</v>
       </c>
       <c r="I7">
-        <v>171651.453125</v>
+        <v>181646.75</v>
       </c>
       <c r="J7">
-        <v>66074.328125</v>
+        <v>176584.859375</v>
       </c>
       <c r="K7">
-        <v>73138.7109375</v>
+        <v>16.08989702114923</v>
       </c>
       <c r="L7">
-        <v>19549.42578125</v>
+        <v>22377.328248619</v>
       </c>
       <c r="M7">
-        <v>-1408.919339149841</v>
+        <v>0.0005579670541919768</v>
       </c>
       <c r="N7">
-        <v>0.001318002119660378</v>
+        <v>2681.058</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>508256.28125</v>
       </c>
       <c r="P7">
-        <v>-305.4268218341967</v>
+        <v>965261.8125</v>
       </c>
       <c r="Q7">
-        <v>312261.53125</v>
+        <v>-47163.73046875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5675,43 +5675,43 @@
         <v>282932.875</v>
       </c>
       <c r="E8">
-        <v>334634.875</v>
+        <v>248742.15625</v>
       </c>
       <c r="F8">
-        <v>248254.265625</v>
+        <v>217714.40625</v>
       </c>
       <c r="G8">
-        <v>342276.375</v>
+        <v>192402.171875</v>
       </c>
       <c r="H8">
-        <v>160591.515625</v>
+        <v>191213.890625</v>
       </c>
       <c r="I8">
-        <v>156837.890625</v>
+        <v>195111.859375</v>
       </c>
       <c r="J8">
-        <v>74172.15625</v>
+        <v>198292.75</v>
       </c>
       <c r="K8">
-        <v>70197.953125</v>
+        <v>19147.03765968383</v>
       </c>
       <c r="L8">
-        <v>49694.296875</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M8">
-        <v>5206.712825385348</v>
+        <v>-77.79592895507812</v>
       </c>
       <c r="N8">
-        <v>0.001318002119660378</v>
+        <v>8508.777709027083</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-74749.65625</v>
       </c>
       <c r="P8">
-        <v>-454.7350205265539</v>
+        <v>1367287</v>
       </c>
       <c r="Q8">
-        <v>317461.3125</v>
+        <v>-25798.849609375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5728,43 +5728,43 @@
         <v>288702.25</v>
       </c>
       <c r="E9">
-        <v>327097.46875</v>
+        <v>379096.03125</v>
       </c>
       <c r="F9">
-        <v>379096.03125</v>
+        <v>151225.359375</v>
       </c>
       <c r="G9">
-        <v>291186.5625</v>
+        <v>155007.984375</v>
       </c>
       <c r="H9">
-        <v>168181.0625</v>
+        <v>187387.140625</v>
       </c>
       <c r="I9">
-        <v>135202.375</v>
+        <v>118209.0390625</v>
       </c>
       <c r="J9">
-        <v>40451.15625</v>
+        <v>139261.296875</v>
       </c>
       <c r="K9">
-        <v>33448.64453125</v>
+        <v>18716.15842882456</v>
       </c>
       <c r="L9">
-        <v>23972.5234375</v>
+        <v>15579.33941442009</v>
       </c>
       <c r="M9">
-        <v>3112.1164137985</v>
+        <v>18717.826171875</v>
       </c>
       <c r="N9">
-        <v>0.001318002119660378</v>
+        <v>18585.93896150975</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>34511.53125</v>
       </c>
       <c r="P9">
-        <v>5.667395428587042</v>
+        <v>519391.6875</v>
       </c>
       <c r="Q9">
-        <v>-80881.0546875</v>
+        <v>419037.65625</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5781,43 +5781,43 @@
         <v>288293.71875</v>
       </c>
       <c r="E10">
-        <v>337613.125</v>
+        <v>254100.203125</v>
       </c>
       <c r="F10">
-        <v>254100.234375</v>
+        <v>195146.71875</v>
       </c>
       <c r="G10">
-        <v>375628.125</v>
+        <v>190241.53125</v>
       </c>
       <c r="H10">
-        <v>206830.40625</v>
+        <v>193141.609375</v>
       </c>
       <c r="I10">
-        <v>133396.25</v>
+        <v>154619.03125</v>
       </c>
       <c r="J10">
-        <v>58995.375</v>
+        <v>103624.3359375</v>
       </c>
       <c r="K10">
-        <v>45317.73046875</v>
+        <v>-11.74558748782874</v>
       </c>
       <c r="L10">
-        <v>14298.1552734375</v>
+        <v>22377.328248619</v>
       </c>
       <c r="M10">
-        <v>-1408.919339149841</v>
+        <v>-0.0002785862307064235</v>
       </c>
       <c r="N10">
-        <v>0.001318002119660378</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>510065.25</v>
       </c>
       <c r="P10">
-        <v>2.06033469504473</v>
+        <v>953052.375</v>
       </c>
       <c r="Q10">
-        <v>835662.3125</v>
+        <v>1047955.25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5834,43 +5834,43 @@
         <v>289069.46875</v>
       </c>
       <c r="E11">
-        <v>352739.65625</v>
+        <v>284253.875</v>
       </c>
       <c r="F11">
-        <v>284253.1875</v>
+        <v>199466.46875</v>
       </c>
       <c r="G11">
-        <v>352725.375</v>
+        <v>202021.171875</v>
       </c>
       <c r="H11">
-        <v>253331.109375</v>
+        <v>136559.796875</v>
       </c>
       <c r="I11">
-        <v>156301.34375</v>
+        <v>161265.296875</v>
       </c>
       <c r="J11">
-        <v>47481.91796875</v>
+        <v>150132.484375</v>
       </c>
       <c r="K11">
-        <v>64451.02734375</v>
+        <v>62818.23994872315</v>
       </c>
       <c r="L11">
-        <v>7253.03955078125</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M11">
-        <v>5206.712825385348</v>
+        <v>62824.4921875</v>
       </c>
       <c r="N11">
-        <v>0.001318002119660378</v>
+        <v>66171.72629936732</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>51459.21875</v>
       </c>
       <c r="P11">
-        <v>-0.5074208352525602</v>
+        <v>264247.96875</v>
       </c>
       <c r="Q11">
-        <v>1417524</v>
+        <v>1600007.125</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5887,43 +5887,43 @@
         <v>288357</v>
       </c>
       <c r="E12">
-        <v>361176.71875</v>
+        <v>448081.75</v>
       </c>
       <c r="F12">
-        <v>448081.40625</v>
+        <v>205050.15625</v>
       </c>
       <c r="G12">
-        <v>330484.1875</v>
+        <v>202640.9375</v>
       </c>
       <c r="H12">
-        <v>331095.5625</v>
+        <v>126552.5703125</v>
       </c>
       <c r="I12">
-        <v>172981.15625</v>
+        <v>175198.171875</v>
       </c>
       <c r="J12">
-        <v>28761.171875</v>
+        <v>152686.078125</v>
       </c>
       <c r="K12">
-        <v>18415.169921875</v>
+        <v>64829.63050391144</v>
       </c>
       <c r="L12">
-        <v>10989.2177734375</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M12">
-        <v>6211.375442685946</v>
+        <v>64898.66015625</v>
       </c>
       <c r="N12">
-        <v>0.001318002119660378</v>
+        <v>55155.04011904761</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4349.3125</v>
       </c>
       <c r="P12">
-        <v>-337.0107459058418</v>
+        <v>559702.625</v>
       </c>
       <c r="Q12">
-        <v>1329161.25</v>
+        <v>1944674.375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5940,43 +5940,43 @@
         <v>289904.25</v>
       </c>
       <c r="E13">
-        <v>358272.6875</v>
+        <v>378576.0625</v>
       </c>
       <c r="F13">
-        <v>378575.46875</v>
+        <v>130850.875</v>
       </c>
       <c r="G13">
-        <v>293207.78125</v>
+        <v>190702.875</v>
       </c>
       <c r="H13">
-        <v>434560.0625</v>
+        <v>108477.3828125</v>
       </c>
       <c r="I13">
-        <v>124132.140625</v>
+        <v>144701.015625</v>
       </c>
       <c r="J13">
-        <v>48487.1640625</v>
+        <v>132249.078125</v>
       </c>
       <c r="K13">
-        <v>37228.421875</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L13">
-        <v>9620.1611328125</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M13">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N13">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-319243.3125</v>
       </c>
       <c r="P13">
-        <v>34.17703378744045</v>
+        <v>-1003228.875</v>
       </c>
       <c r="Q13">
-        <v>708348.3125</v>
+        <v>2566465</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5993,43 +5993,43 @@
         <v>289813.71875</v>
       </c>
       <c r="E14">
-        <v>371742.09375</v>
+        <v>538576.3125</v>
       </c>
       <c r="F14">
-        <v>538576.375</v>
+        <v>105642.40625</v>
       </c>
       <c r="G14">
-        <v>407143.59375</v>
+        <v>112221.09375</v>
       </c>
       <c r="H14">
-        <v>601377.0625</v>
+        <v>78801.671875</v>
       </c>
       <c r="I14">
-        <v>142263.78125</v>
+        <v>112499.9453125</v>
       </c>
       <c r="J14">
-        <v>61098.97265625</v>
+        <v>105919.8046875</v>
       </c>
       <c r="K14">
-        <v>40150.82421875</v>
+        <v>76526.41542075547</v>
       </c>
       <c r="L14">
-        <v>1365.407836914062</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M14">
-        <v>5206.712825385348</v>
+        <v>76547.8046875</v>
       </c>
       <c r="N14">
-        <v>0.001318002119660378</v>
+        <v>82411.11782861424</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-77898.25</v>
       </c>
       <c r="P14">
-        <v>-10.86575971415732</v>
+        <v>-849416.25</v>
       </c>
       <c r="Q14">
-        <v>1043517</v>
+        <v>3200567.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6046,43 +6046,43 @@
         <v>292790.375</v>
       </c>
       <c r="E15">
-        <v>358204.375</v>
+        <v>589890.625</v>
       </c>
       <c r="F15">
-        <v>589890.5625</v>
+        <v>153247.859375</v>
       </c>
       <c r="G15">
-        <v>655295.875</v>
+        <v>148163.078125</v>
       </c>
       <c r="H15">
-        <v>750646.0625</v>
+        <v>32288.837890625</v>
       </c>
       <c r="I15">
-        <v>109736.0546875</v>
+        <v>138232.296875</v>
       </c>
       <c r="J15">
-        <v>95496.609375</v>
+        <v>87229.5</v>
       </c>
       <c r="K15">
-        <v>106067.5625</v>
+        <v>18602.22152580252</v>
       </c>
       <c r="L15">
-        <v>41297.3515625</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M15">
-        <v>5206.712825385348</v>
+        <v>338.1966857910156</v>
       </c>
       <c r="N15">
-        <v>0.001318002119660378</v>
+        <v>6924.128734668109</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>695932.625</v>
       </c>
       <c r="P15">
-        <v>-362.5860428895539</v>
+        <v>1011581.6875</v>
       </c>
       <c r="Q15">
-        <v>-1267755</v>
+        <v>3885572.75</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6099,43 +6099,43 @@
         <v>297582.28125</v>
       </c>
       <c r="E16">
-        <v>370556.34375</v>
+        <v>232538.375</v>
       </c>
       <c r="F16">
-        <v>232538.375</v>
+        <v>68551.859375</v>
       </c>
       <c r="G16">
-        <v>153780.984375</v>
+        <v>125947.2578125</v>
       </c>
       <c r="H16">
-        <v>728092.8125</v>
+        <v>8287.015625</v>
       </c>
       <c r="I16">
-        <v>12561.7314453125</v>
+        <v>91225.5234375</v>
       </c>
       <c r="J16">
-        <v>3614.130126953125</v>
+        <v>34189.8359375</v>
       </c>
       <c r="K16">
-        <v>38313.296875</v>
+        <v>-11.74558748782874</v>
       </c>
       <c r="L16">
-        <v>6497.00244140625</v>
+        <v>22377.328248619</v>
       </c>
       <c r="M16">
-        <v>-1408.919339149841</v>
+        <v>-0.0002785862307064235</v>
       </c>
       <c r="N16">
-        <v>0.001318002119660378</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>127778.1875</v>
       </c>
       <c r="P16">
-        <v>2.06033469504473</v>
+        <v>370914.375</v>
       </c>
       <c r="Q16">
-        <v>670955.4375</v>
+        <v>5036609</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6152,43 +6152,43 @@
         <v>297696.375</v>
       </c>
       <c r="E17">
-        <v>377641.625</v>
+        <v>-5166.08642578125</v>
       </c>
       <c r="F17">
-        <v>-5166.201171875</v>
+        <v>73191.84375</v>
       </c>
       <c r="G17">
-        <v>8510.306640625</v>
+        <v>117778.796875</v>
       </c>
       <c r="H17">
-        <v>679712.125</v>
+        <v>6772.26171875</v>
       </c>
       <c r="I17">
-        <v>-753.093505859375</v>
+        <v>95064.625</v>
       </c>
       <c r="J17">
-        <v>1120.16455078125</v>
+        <v>56370.05078125</v>
       </c>
       <c r="K17">
-        <v>-1378.370849609375</v>
+        <v>80.48300002454926</v>
       </c>
       <c r="L17">
-        <v>-1723.309448242188</v>
+        <v>15579.33941442009</v>
       </c>
       <c r="M17">
-        <v>3112.1164137985</v>
+        <v>2.768541378372902E-07</v>
       </c>
       <c r="N17">
-        <v>0.001318002119660378</v>
+        <v>1729.496785714286</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-24588.21875</v>
       </c>
       <c r="P17">
-        <v>257.729045496686</v>
+        <v>938265.5</v>
       </c>
       <c r="Q17">
-        <v>326649.53125</v>
+        <v>4797867</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6205,43 +6205,43 @@
         <v>299861.625</v>
       </c>
       <c r="E18">
-        <v>384948.84375</v>
+        <v>7124.73681640625</v>
       </c>
       <c r="F18">
-        <v>7124.34326171875</v>
+        <v>150261.234375</v>
       </c>
       <c r="G18">
-        <v>15306.8759765625</v>
+        <v>200777.65625</v>
       </c>
       <c r="H18">
-        <v>848562.0625</v>
+        <v>27437.1953125</v>
       </c>
       <c r="I18">
-        <v>16625.58984375</v>
+        <v>147021.265625</v>
       </c>
       <c r="J18">
-        <v>1410.7939453125</v>
+        <v>84517.71875</v>
       </c>
       <c r="K18">
-        <v>5496.3662109375</v>
+        <v>40997.84494167498</v>
       </c>
       <c r="L18">
-        <v>10075.357421875</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M18">
-        <v>6211.375442685946</v>
+        <v>40960.56640625</v>
       </c>
       <c r="N18">
-        <v>0.001318002119660378</v>
+        <v>37222.60897835496</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>174034.96875</v>
       </c>
       <c r="P18">
-        <v>-20.95161391641886</v>
+        <v>70922.546875</v>
       </c>
       <c r="Q18">
-        <v>-236233.359375</v>
+        <v>4145634</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6258,43 +6258,43 @@
         <v>298261.8125</v>
       </c>
       <c r="E19">
-        <v>392751.5625</v>
+        <v>-5972.6181640625</v>
       </c>
       <c r="F19">
-        <v>-5972.7998046875</v>
+        <v>189471.59375</v>
       </c>
       <c r="G19">
-        <v>41138.296875</v>
+        <v>221235.453125</v>
       </c>
       <c r="H19">
-        <v>1017412.5</v>
+        <v>5444.267578125</v>
       </c>
       <c r="I19">
-        <v>29903.6484375</v>
+        <v>130738.9140625</v>
       </c>
       <c r="J19">
-        <v>2990.684326171875</v>
+        <v>67043.859375</v>
       </c>
       <c r="K19">
-        <v>9993.8505859375</v>
+        <v>-1609.57015224982</v>
       </c>
       <c r="L19">
-        <v>9378.9453125</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M19">
-        <v>6211.375442685946</v>
+        <v>-1135.36669921875</v>
       </c>
       <c r="N19">
-        <v>0.001318002119660378</v>
+        <v>1356.9075</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>163104.1875</v>
       </c>
       <c r="P19">
-        <v>-106.5380720738467</v>
+        <v>312885.03125</v>
       </c>
       <c r="Q19">
-        <v>-2035048.875</v>
+        <v>3504424.25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6311,43 +6311,43 @@
         <v>301662.5625</v>
       </c>
       <c r="E20">
-        <v>382264.71875</v>
+        <v>-138857.921875</v>
       </c>
       <c r="F20">
-        <v>-138858.09375</v>
+        <v>159552.6875</v>
       </c>
       <c r="G20">
-        <v>16770.466796875</v>
+        <v>203189.65625</v>
       </c>
       <c r="H20">
-        <v>950860.625</v>
+        <v>8608.099609375</v>
       </c>
       <c r="I20">
-        <v>1682.453369140625</v>
+        <v>163557.171875</v>
       </c>
       <c r="J20">
-        <v>-840.940673828125</v>
+        <v>113432.515625</v>
       </c>
       <c r="K20">
-        <v>-1914.820190429688</v>
+        <v>1.558196383346512</v>
       </c>
       <c r="L20">
-        <v>-153.8960418701172</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M20">
-        <v>5206.712825385348</v>
+        <v>2.64285863522673E-05</v>
       </c>
       <c r="N20">
-        <v>0.001318002119660378</v>
+        <v>766.515</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>288248.59375</v>
       </c>
       <c r="P20">
-        <v>7.243058214953635</v>
+        <v>1729376.625</v>
       </c>
       <c r="Q20">
-        <v>614836.25</v>
+        <v>3245120</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6364,43 +6364,43 @@
         <v>304752.65625</v>
       </c>
       <c r="E21">
-        <v>389525.03125</v>
+        <v>94169.9765625</v>
       </c>
       <c r="F21">
-        <v>94169.875</v>
+        <v>161704.140625</v>
       </c>
       <c r="G21">
-        <v>-3196.13916015625</v>
+        <v>186206.265625</v>
       </c>
       <c r="H21">
-        <v>740550.8125</v>
+        <v>5556.6455078125</v>
       </c>
       <c r="I21">
-        <v>866.08642578125</v>
+        <v>165971.703125</v>
       </c>
       <c r="J21">
-        <v>1580.8701171875</v>
+        <v>107228.9921875</v>
       </c>
       <c r="K21">
-        <v>-604.9087524414062</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L21">
-        <v>-1522.563354492188</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M21">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N21">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>120723.515625</v>
       </c>
       <c r="P21">
-        <v>34.17703378744045</v>
+        <v>1809840.25</v>
       </c>
       <c r="Q21">
-        <v>1885670.625</v>
+        <v>4267078.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6417,43 +6417,43 @@
         <v>307189.4375</v>
       </c>
       <c r="E22">
-        <v>403850.6875</v>
+        <v>64220.046875</v>
       </c>
       <c r="F22">
-        <v>64220.53125</v>
+        <v>198517.328125</v>
       </c>
       <c r="G22">
-        <v>7162.64208984375</v>
+        <v>293249.09375</v>
       </c>
       <c r="H22">
-        <v>762698.4375</v>
+        <v>38200.91015625</v>
       </c>
       <c r="I22">
-        <v>5407.09228515625</v>
+        <v>221168</v>
       </c>
       <c r="J22">
-        <v>7352.67822265625</v>
+        <v>189939.125</v>
       </c>
       <c r="K22">
-        <v>26281.326171875</v>
+        <v>76526.41542075547</v>
       </c>
       <c r="L22">
-        <v>21657.939453125</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M22">
-        <v>5206.712825385348</v>
+        <v>76547.8046875</v>
       </c>
       <c r="N22">
-        <v>0.001318002119660378</v>
+        <v>82411.11782861424</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>485982.84375</v>
       </c>
       <c r="P22">
-        <v>-10.86575971415732</v>
+        <v>839540.4375</v>
       </c>
       <c r="Q22">
-        <v>-1137221</v>
+        <v>4930363</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6470,43 +6470,43 @@
         <v>304304.5</v>
       </c>
       <c r="E23">
-        <v>408390.71875</v>
+        <v>-29694.65234375</v>
       </c>
       <c r="F23">
-        <v>-29694.794921875</v>
+        <v>165548.71875</v>
       </c>
       <c r="G23">
-        <v>5052.06591796875</v>
+        <v>314760</v>
       </c>
       <c r="H23">
-        <v>809832.625</v>
+        <v>3892.33935546875</v>
       </c>
       <c r="I23">
-        <v>12553.9609375</v>
+        <v>243773.609375</v>
       </c>
       <c r="J23">
-        <v>45.3005485534668</v>
+        <v>239613.34375</v>
       </c>
       <c r="K23">
-        <v>17078.5625</v>
+        <v>27.97115007411776</v>
       </c>
       <c r="L23">
-        <v>17282.296875</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M23">
-        <v>5206.712825385348</v>
+        <v>-1.034033266478218E-05</v>
       </c>
       <c r="N23">
-        <v>0.001318002119660378</v>
+        <v>7892.24</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>210166.859375</v>
       </c>
       <c r="P23">
-        <v>167.8953481437202</v>
+        <v>2707478.75</v>
       </c>
       <c r="Q23">
-        <v>522312.21875</v>
+        <v>5526545.5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6523,43 +6523,43 @@
         <v>305909.96875</v>
       </c>
       <c r="E24">
-        <v>412839.3125</v>
+        <v>-127584.9921875</v>
       </c>
       <c r="F24">
-        <v>-127584.9609375</v>
+        <v>141336.578125</v>
       </c>
       <c r="G24">
-        <v>-10857.814453125</v>
+        <v>291804.96875</v>
       </c>
       <c r="H24">
-        <v>657997</v>
+        <v>9511.5146484375</v>
       </c>
       <c r="I24">
-        <v>-1006.192138671875</v>
+        <v>230942.1875</v>
       </c>
       <c r="J24">
-        <v>1889.849975585938</v>
+        <v>291069.09375</v>
       </c>
       <c r="K24">
-        <v>3319.27587890625</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L24">
-        <v>13408.326171875</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M24">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N24">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>-150188.96875</v>
       </c>
       <c r="P24">
-        <v>34.17703378744045</v>
+        <v>2402083.25</v>
       </c>
       <c r="Q24">
-        <v>-711484.875</v>
+        <v>6249920.5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6576,43 +6576,43 @@
         <v>307575.90625</v>
       </c>
       <c r="E25">
-        <v>411485.96875</v>
+        <v>17638.515625</v>
       </c>
       <c r="F25">
-        <v>17638.541015625</v>
+        <v>92312.71875</v>
       </c>
       <c r="G25">
-        <v>-1352.635864257812</v>
+        <v>225120.234375</v>
       </c>
       <c r="H25">
-        <v>578410.875</v>
+        <v>32365.3359375</v>
       </c>
       <c r="I25">
-        <v>-2467.7333984375</v>
+        <v>231199.234375</v>
       </c>
       <c r="J25">
-        <v>-656.9498901367188</v>
+        <v>249469.484375</v>
       </c>
       <c r="K25">
-        <v>539.9768676757812</v>
+        <v>40997.84494167498</v>
       </c>
       <c r="L25">
-        <v>6066.7998046875</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M25">
-        <v>6211.375442685946</v>
+        <v>40960.56640625</v>
       </c>
       <c r="N25">
-        <v>0.001318002119660378</v>
+        <v>37222.60897835496</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>56311.984375</v>
       </c>
       <c r="P25">
-        <v>-20.95161391641886</v>
+        <v>2039177.625</v>
       </c>
       <c r="Q25">
-        <v>66855.984375</v>
+        <v>6453812</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6629,43 +6629,43 @@
         <v>306960.875</v>
       </c>
       <c r="E26">
-        <v>414323.15625</v>
+        <v>-4013.79443359375</v>
       </c>
       <c r="F26">
-        <v>-4013.916748046875</v>
+        <v>90617.1953125</v>
       </c>
       <c r="G26">
-        <v>4685.14990234375</v>
+        <v>217391.53125</v>
       </c>
       <c r="H26">
-        <v>496452.3125</v>
+        <v>36432.2890625</v>
       </c>
       <c r="I26">
-        <v>-1467.131958007812</v>
+        <v>191141.71875</v>
       </c>
       <c r="J26">
-        <v>786.9260864257812</v>
+        <v>257572.03125</v>
       </c>
       <c r="K26">
-        <v>-2235.96533203125</v>
+        <v>18716.15842882456</v>
       </c>
       <c r="L26">
-        <v>1916.232177734375</v>
+        <v>15579.33941442009</v>
       </c>
       <c r="M26">
-        <v>3112.1164137985</v>
+        <v>18717.826171875</v>
       </c>
       <c r="N26">
-        <v>0.001318002119660378</v>
+        <v>18585.93896150975</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>514734.78125</v>
       </c>
       <c r="P26">
-        <v>5.667395428587042</v>
+        <v>2690333</v>
       </c>
       <c r="Q26">
-        <v>547277.5625</v>
+        <v>6642338.5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6682,43 +6682,43 @@
         <v>307245.15625</v>
       </c>
       <c r="E27">
-        <v>419154.34375</v>
+        <v>-24065.552734375</v>
       </c>
       <c r="F27">
-        <v>-24066.142578125</v>
+        <v>107936.75</v>
       </c>
       <c r="G27">
-        <v>45478.18359375</v>
+        <v>269511.71875</v>
       </c>
       <c r="H27">
-        <v>406780.0625</v>
+        <v>33453.23828125</v>
       </c>
       <c r="I27">
-        <v>9355.7060546875</v>
+        <v>207521.765625</v>
       </c>
       <c r="J27">
-        <v>7265.44873046875</v>
+        <v>288548.65625</v>
       </c>
       <c r="K27">
-        <v>38406.81640625</v>
+        <v>5817.541429395009</v>
       </c>
       <c r="L27">
-        <v>50223.21484375</v>
+        <v>32264.35107903058</v>
       </c>
       <c r="M27">
-        <v>6211.375442685946</v>
+        <v>-516.5509033203125</v>
       </c>
       <c r="N27">
-        <v>0.001318002119660378</v>
+        <v>2684.055222222222</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>74808.984375</v>
       </c>
       <c r="P27">
-        <v>364.4861423926995</v>
+        <v>3578966.5</v>
       </c>
       <c r="Q27">
-        <v>-1921313.625</v>
+        <v>6887267.5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6735,43 +6735,43 @@
         <v>308418.40625</v>
       </c>
       <c r="E28">
-        <v>435253.46875</v>
+        <v>-70757.171875</v>
       </c>
       <c r="F28">
-        <v>-70756.765625</v>
+        <v>62308.28125</v>
       </c>
       <c r="G28">
-        <v>5839.4033203125</v>
+        <v>230872.640625</v>
       </c>
       <c r="H28">
-        <v>457217.25</v>
+        <v>68794.140625</v>
       </c>
       <c r="I28">
-        <v>-3597.2763671875</v>
+        <v>240309.59375</v>
       </c>
       <c r="J28">
-        <v>3817.28662109375</v>
+        <v>262176.25</v>
       </c>
       <c r="K28">
-        <v>32.17784118652344</v>
+        <v>42854.25917718716</v>
       </c>
       <c r="L28">
-        <v>-1084.976440429688</v>
+        <v>46337.47899174029</v>
       </c>
       <c r="M28">
-        <v>4913.024698765565</v>
+        <v>42860.2265625</v>
       </c>
       <c r="N28">
-        <v>0.001318002119660378</v>
+        <v>39438.05353010018</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>486647.9375</v>
       </c>
       <c r="P28">
-        <v>-40.67296193232323</v>
+        <v>1692808</v>
       </c>
       <c r="Q28">
-        <v>1212131.75</v>
+        <v>6903684.5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6788,43 +6788,43 @@
         <v>307738.0625</v>
       </c>
       <c r="E29">
-        <v>442016.21875</v>
+        <v>-55377.265625</v>
       </c>
       <c r="F29">
-        <v>-55376.55859375</v>
+        <v>127136.3046875</v>
       </c>
       <c r="G29">
-        <v>2322.7490234375</v>
+        <v>223270.921875</v>
       </c>
       <c r="H29">
-        <v>618434.25</v>
+        <v>169725.625</v>
       </c>
       <c r="I29">
-        <v>-3871.5400390625</v>
+        <v>131699.953125</v>
       </c>
       <c r="J29">
-        <v>-3839.28369140625</v>
+        <v>234873.171875</v>
       </c>
       <c r="K29">
-        <v>523.2274780273438</v>
+        <v>80.48300002454926</v>
       </c>
       <c r="L29">
-        <v>634.7510375976562</v>
+        <v>15579.33941442009</v>
       </c>
       <c r="M29">
-        <v>3112.1164137985</v>
+        <v>2.768541378372902E-07</v>
       </c>
       <c r="N29">
-        <v>0.001318002119660378</v>
+        <v>1729.496785714286</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>113969.234375</v>
       </c>
       <c r="P29">
-        <v>257.729045496686</v>
+        <v>2302938.5</v>
       </c>
       <c r="Q29">
-        <v>-218139.1875</v>
+        <v>7316460</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6841,43 +6841,43 @@
         <v>309752.8125</v>
       </c>
       <c r="E30">
-        <v>455011.90625</v>
+        <v>47642.171875</v>
       </c>
       <c r="F30">
-        <v>47642.20703125</v>
+        <v>130583.8046875</v>
       </c>
       <c r="G30">
-        <v>4944.7998046875</v>
+        <v>243795.390625</v>
       </c>
       <c r="H30">
-        <v>771282.125</v>
+        <v>245844.515625</v>
       </c>
       <c r="I30">
-        <v>-1631.453002929688</v>
+        <v>251026.96875</v>
       </c>
       <c r="J30">
-        <v>-128.2384033203125</v>
+        <v>246554.015625</v>
       </c>
       <c r="K30">
-        <v>-2870.4560546875</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L30">
-        <v>1754.203125</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M30">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N30">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>173708.59375</v>
       </c>
       <c r="P30">
-        <v>34.17703378744045</v>
+        <v>2985876.5</v>
       </c>
       <c r="Q30">
-        <v>-72532.8515625</v>
+        <v>7867558</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6894,43 +6894,43 @@
         <v>312617.8125</v>
       </c>
       <c r="E31">
-        <v>447943.3125</v>
+        <v>-173661.546875</v>
       </c>
       <c r="F31">
-        <v>-173661.4375</v>
+        <v>169554.4375</v>
       </c>
       <c r="G31">
-        <v>18922.890625</v>
+        <v>251730.171875</v>
       </c>
       <c r="H31">
-        <v>906424.6875</v>
+        <v>268561.28125</v>
       </c>
       <c r="I31">
-        <v>-4126.79931640625</v>
+        <v>205452.9375</v>
       </c>
       <c r="J31">
-        <v>1728.98876953125</v>
+        <v>309172.09375</v>
       </c>
       <c r="K31">
-        <v>7083.98828125</v>
+        <v>18716.15842882456</v>
       </c>
       <c r="L31">
-        <v>18029.841796875</v>
+        <v>15579.33941442009</v>
       </c>
       <c r="M31">
-        <v>3112.1164137985</v>
+        <v>18717.826171875</v>
       </c>
       <c r="N31">
-        <v>0.001318002119660378</v>
+        <v>18585.93896150975</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>-773022.5625</v>
       </c>
       <c r="P31">
-        <v>5.667395428587042</v>
+        <v>2258933</v>
       </c>
       <c r="Q31">
-        <v>424639.78125</v>
+        <v>8360980</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6947,43 +6947,43 @@
         <v>314122.03125</v>
       </c>
       <c r="E32">
-        <v>447795.6875</v>
+        <v>37380.45703125</v>
       </c>
       <c r="F32">
-        <v>37380.21484375</v>
+        <v>80659.9140625</v>
       </c>
       <c r="G32">
-        <v>19048.12890625</v>
+        <v>191165.890625</v>
       </c>
       <c r="H32">
-        <v>936324.625</v>
+        <v>322502.5625</v>
       </c>
       <c r="I32">
-        <v>-10588.7626953125</v>
+        <v>172789.796875</v>
       </c>
       <c r="J32">
-        <v>1636.091796875</v>
+        <v>250254.0625</v>
       </c>
       <c r="K32">
-        <v>-8651.818359375</v>
+        <v>13754.15985535965</v>
       </c>
       <c r="L32">
-        <v>6420.29443359375</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M32">
-        <v>5206.712825385348</v>
+        <v>-1.034033266478218E-05</v>
       </c>
       <c r="N32">
-        <v>0.001318002119660378</v>
+        <v>12208.7375</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>548549.5</v>
       </c>
       <c r="P32">
-        <v>116.9638615275471</v>
+        <v>1956805.75</v>
       </c>
       <c r="Q32">
-        <v>-887868.375</v>
+        <v>9082656</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7000,43 +7000,43 @@
         <v>319834.9375</v>
       </c>
       <c r="E33">
-        <v>460542.40625</v>
+        <v>27266.24609375</v>
       </c>
       <c r="F33">
-        <v>27266.31640625</v>
+        <v>116105.09375</v>
       </c>
       <c r="G33">
-        <v>15862.388671875</v>
+        <v>244822.203125</v>
       </c>
       <c r="H33">
-        <v>838184.9375</v>
+        <v>432071.8125</v>
       </c>
       <c r="I33">
-        <v>85.2742919921875</v>
+        <v>210859.953125</v>
       </c>
       <c r="J33">
-        <v>709.1434326171875</v>
+        <v>343932.75</v>
       </c>
       <c r="K33">
-        <v>-1780.44091796875</v>
+        <v>52629.39965911176</v>
       </c>
       <c r="L33">
-        <v>30.80609321594238</v>
+        <v>48889.56460206227</v>
       </c>
       <c r="M33">
-        <v>1031.870804325979</v>
+        <v>52628.421875</v>
       </c>
       <c r="N33">
-        <v>0.001318002119660378</v>
+        <v>50912.50268977389</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>547012.875</v>
       </c>
       <c r="P33">
-        <v>34.17703378744045</v>
+        <v>2263124.75</v>
       </c>
       <c r="Q33">
-        <v>405869.5625</v>
+        <v>9588096</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7053,43 +7053,43 @@
         <v>321097.375</v>
       </c>
       <c r="E34">
-        <v>462713.1875</v>
+        <v>-95888.2265625</v>
       </c>
       <c r="F34">
-        <v>-95888.265625</v>
+        <v>147782.65625</v>
       </c>
       <c r="G34">
-        <v>-13442.291015625</v>
+        <v>269395.09375</v>
       </c>
       <c r="H34">
-        <v>771753.875</v>
+        <v>453770.53125</v>
       </c>
       <c r="I34">
-        <v>99.90364074707031</v>
+        <v>198945.265625</v>
       </c>
       <c r="J34">
-        <v>-2664.82861328125</v>
+        <v>397025.8125</v>
       </c>
       <c r="K34">
-        <v>4293.11279296875</v>
+        <v>62818.23994872315</v>
       </c>
       <c r="L34">
-        <v>4665.04345703125</v>
+        <v>58967.53195235646</v>
       </c>
       <c r="M34">
-        <v>5206.712825385348</v>
+        <v>62824.4921875</v>
       </c>
       <c r="N34">
-        <v>0.001318002119660378</v>
+        <v>66171.72629936732</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>11463.703125</v>
       </c>
       <c r="P34">
-        <v>-0.5074208352525602</v>
+        <v>3377862.25</v>
       </c>
       <c r="Q34">
-        <v>863398.375</v>
+        <v>9699607</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_동해선.xlsx
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>184394821666.8695</v>
+        <v>41997910124.96029</v>
       </c>
       <c r="C5">
-        <v>429412.1815538883</v>
+        <v>204933.9164827538</v>
       </c>
       <c r="D5">
-        <v>0.5112416288726963</v>
+        <v>0.08987031285529257</v>
       </c>
       <c r="E5">
-        <v>332621.0260416667</v>
+        <v>161320.2395833333</v>
       </c>
       <c r="F5">
-        <v>0.5396655354407675</v>
+        <v>0.2470266563239022</v>
       </c>
       <c r="G5">
-        <v>229409.125</v>
+        <v>153993.34375</v>
       </c>
       <c r="H5">
-        <v>0.3797744279842282</v>
+        <v>0.2625004669633303</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -933,7 +933,7 @@
         <v>471520.71875</v>
       </c>
       <c r="G2">
-        <v>780648.6875</v>
+        <v>799026</v>
       </c>
       <c r="H2">
         <v>278437.46875</v>
@@ -986,7 +986,7 @@
         <v>465927.6875</v>
       </c>
       <c r="G3">
-        <v>755468.5625</v>
+        <v>777505.1875</v>
       </c>
       <c r="H3">
         <v>327245.71875</v>
@@ -1039,7 +1039,7 @@
         <v>472111.46875</v>
       </c>
       <c r="G4">
-        <v>652179.625</v>
+        <v>715139.75</v>
       </c>
       <c r="H4">
         <v>279173.75</v>
@@ -1092,7 +1092,7 @@
         <v>499529.75</v>
       </c>
       <c r="G5">
-        <v>648207.25</v>
+        <v>604494</v>
       </c>
       <c r="H5">
         <v>297036</v>
@@ -1145,7 +1145,7 @@
         <v>437291.375</v>
       </c>
       <c r="G6">
-        <v>529048.625</v>
+        <v>389830.875</v>
       </c>
       <c r="H6">
         <v>307490.03125</v>
@@ -1198,7 +1198,7 @@
         <v>479187.03125</v>
       </c>
       <c r="G7">
-        <v>623491.75</v>
+        <v>295662.5</v>
       </c>
       <c r="H7">
         <v>257632.9375</v>
@@ -1251,7 +1251,7 @@
         <v>472001.5</v>
       </c>
       <c r="G8">
-        <v>712238.125</v>
+        <v>444980.0625</v>
       </c>
       <c r="H8">
         <v>207500.625</v>
@@ -1304,7 +1304,7 @@
         <v>444057.96875</v>
       </c>
       <c r="G9">
-        <v>831278.5625</v>
+        <v>574949.625</v>
       </c>
       <c r="H9">
         <v>215640.078125</v>
@@ -1357,7 +1357,7 @@
         <v>440442.28125</v>
       </c>
       <c r="G10">
-        <v>1054554</v>
+        <v>565732.3125</v>
       </c>
       <c r="H10">
         <v>230978.453125</v>
@@ -1410,7 +1410,7 @@
         <v>412644.4375</v>
       </c>
       <c r="G11">
-        <v>1250652.375</v>
+        <v>552922.3125</v>
       </c>
       <c r="H11">
         <v>204356.53125</v>
@@ -1463,7 +1463,7 @@
         <v>400579.53125</v>
       </c>
       <c r="G12">
-        <v>1369017.625</v>
+        <v>689382.8125</v>
       </c>
       <c r="H12">
         <v>133143.984375</v>
@@ -1516,7 +1516,7 @@
         <v>384488.53125</v>
       </c>
       <c r="G13">
-        <v>1331051.5</v>
+        <v>879675.1875</v>
       </c>
       <c r="H13">
         <v>177223.171875</v>
@@ -1569,7 +1569,7 @@
         <v>356030.34375</v>
       </c>
       <c r="G14">
-        <v>1098614</v>
+        <v>1015121.4375</v>
       </c>
       <c r="H14">
         <v>135065.609375</v>
@@ -1622,7 +1622,7 @@
         <v>356437.75</v>
       </c>
       <c r="G15">
-        <v>918760.1875</v>
+        <v>1145267.375</v>
       </c>
       <c r="H15">
         <v>96078.6953125</v>
@@ -1675,7 +1675,7 @@
         <v>328861.4375</v>
       </c>
       <c r="G16">
-        <v>763109.875</v>
+        <v>1341444.5</v>
       </c>
       <c r="H16">
         <v>63343.1796875</v>
@@ -1728,7 +1728,7 @@
         <v>326160.3125</v>
       </c>
       <c r="G17">
-        <v>953497.3125</v>
+        <v>1743434.875</v>
       </c>
       <c r="H17">
         <v>6203.22509765625</v>
@@ -1781,7 +1781,7 @@
         <v>363858.59375</v>
       </c>
       <c r="G18">
-        <v>1810648</v>
+        <v>2081591</v>
       </c>
       <c r="H18">
         <v>44791.3828125</v>
@@ -1834,7 +1834,7 @@
         <v>324369.9375</v>
       </c>
       <c r="G19">
-        <v>2721535</v>
+        <v>2480327.75</v>
       </c>
       <c r="H19">
         <v>4592.58837890625</v>
@@ -1887,7 +1887,7 @@
         <v>369305.5</v>
       </c>
       <c r="G20">
-        <v>3448018.25</v>
+        <v>3101361.25</v>
       </c>
       <c r="H20">
         <v>7177.32080078125</v>
@@ -1940,7 +1940,7 @@
         <v>345583.53125</v>
       </c>
       <c r="G21">
-        <v>3695040</v>
+        <v>3338820.75</v>
       </c>
       <c r="H21">
         <v>13850.7578125</v>
@@ -1993,7 +1993,7 @@
         <v>299880.625</v>
       </c>
       <c r="G22">
-        <v>3886823.75</v>
+        <v>3367053.75</v>
       </c>
       <c r="H22">
         <v>17185.837890625</v>
@@ -2046,7 +2046,7 @@
         <v>396609.59375</v>
       </c>
       <c r="G23">
-        <v>4041559.25</v>
+        <v>3309475</v>
       </c>
       <c r="H23">
         <v>29064.240234375</v>
@@ -2099,7 +2099,7 @@
         <v>379343.90625</v>
       </c>
       <c r="G24">
-        <v>4010462.5</v>
+        <v>3398314</v>
       </c>
       <c r="H24">
         <v>3611.817138671875</v>
@@ -2152,7 +2152,7 @@
         <v>359393.5</v>
       </c>
       <c r="G25">
-        <v>4525749.5</v>
+        <v>3771629.25</v>
       </c>
       <c r="H25">
         <v>5517.4658203125</v>
@@ -2205,7 +2205,7 @@
         <v>349127.375</v>
       </c>
       <c r="G26">
-        <v>5298178.5</v>
+        <v>4543215</v>
       </c>
       <c r="H26">
         <v>3858.27783203125</v>
@@ -2258,7 +2258,7 @@
         <v>309997.71875</v>
       </c>
       <c r="G27">
-        <v>6421786</v>
+        <v>5423548.5</v>
       </c>
       <c r="H27">
         <v>21937.541015625</v>
@@ -2311,7 +2311,7 @@
         <v>149415.109375</v>
       </c>
       <c r="G28">
-        <v>6414729.5</v>
+        <v>5813029.5</v>
       </c>
       <c r="H28">
         <v>12925.7001953125</v>
@@ -2364,7 +2364,7 @@
         <v>301833.75</v>
       </c>
       <c r="G29">
-        <v>6256049.5</v>
+        <v>6025273</v>
       </c>
       <c r="H29">
         <v>51589.53125</v>
@@ -2417,7 +2417,7 @@
         <v>118473.21875</v>
       </c>
       <c r="G30">
-        <v>6030143.5</v>
+        <v>6102253.5</v>
       </c>
       <c r="H30">
         <v>56989.00390625</v>
@@ -2470,7 +2470,7 @@
         <v>269933.75</v>
       </c>
       <c r="G31">
-        <v>6072022.5</v>
+        <v>6141415</v>
       </c>
       <c r="H31">
         <v>212077.828125</v>
@@ -2523,7 +2523,7 @@
         <v>109169.8515625</v>
       </c>
       <c r="G32">
-        <v>6794070.5</v>
+        <v>6956738.5</v>
       </c>
       <c r="H32">
         <v>271310.375</v>
@@ -2576,7 +2576,7 @@
         <v>119996.5546875</v>
       </c>
       <c r="G33">
-        <v>7996004</v>
+        <v>8088011.5</v>
       </c>
       <c r="H33">
         <v>455506.125</v>
@@ -2629,7 +2629,7 @@
         <v>-16317.8505859375</v>
       </c>
       <c r="G34">
-        <v>8536582</v>
+        <v>8587788</v>
       </c>
       <c r="H34">
         <v>709637.25</v>
@@ -2885,25 +2885,25 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>73738407061.72981</v>
+        <v>43522289019.38691</v>
       </c>
       <c r="C9">
-        <v>271548.1671117112</v>
+        <v>208619.9631372485</v>
       </c>
       <c r="D9">
-        <v>0.9491363581567831</v>
+        <v>0.5646626626265604</v>
       </c>
       <c r="E9">
-        <v>199154.2447916667</v>
+        <v>156833.787109375</v>
       </c>
       <c r="F9">
-        <v>0.7100279757911004</v>
+        <v>0.5386446896934994</v>
       </c>
       <c r="G9">
-        <v>129442.75</v>
+        <v>111093.8984375</v>
       </c>
       <c r="H9">
-        <v>0.431036215700092</v>
+        <v>0.3868423698210355</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3160,7 +3160,7 @@
         <v>140844.125</v>
       </c>
       <c r="K2">
-        <v>447488.90625</v>
+        <v>212989.4375</v>
       </c>
       <c r="L2">
         <v>17175.771484375</v>
@@ -3213,7 +3213,7 @@
         <v>176782.40625</v>
       </c>
       <c r="K3">
-        <v>469577.25</v>
+        <v>237063.359375</v>
       </c>
       <c r="L3">
         <v>87255.4921875</v>
@@ -3266,7 +3266,7 @@
         <v>217336.84375</v>
       </c>
       <c r="K4">
-        <v>509256.78125</v>
+        <v>271349.78125</v>
       </c>
       <c r="L4">
         <v>17443.666015625</v>
@@ -3319,7 +3319,7 @@
         <v>223132.890625</v>
       </c>
       <c r="K5">
-        <v>463123.75</v>
+        <v>275836.78125</v>
       </c>
       <c r="L5">
         <v>17175.771484375</v>
@@ -3372,7 +3372,7 @@
         <v>181506.875</v>
       </c>
       <c r="K6">
-        <v>305558</v>
+        <v>268849.6875</v>
       </c>
       <c r="L6">
         <v>47946.57421875</v>
@@ -3425,7 +3425,7 @@
         <v>198984.09375</v>
       </c>
       <c r="K7">
-        <v>215630.6875</v>
+        <v>199021.921875</v>
       </c>
       <c r="L7">
         <v>-867.3833618164062</v>
@@ -3478,7 +3478,7 @@
         <v>285453.96875</v>
       </c>
       <c r="K8">
-        <v>280387.6875</v>
+        <v>72047.7265625</v>
       </c>
       <c r="L8">
         <v>17443.666015625</v>
@@ -3531,7 +3531,7 @@
         <v>208750.8125</v>
       </c>
       <c r="K9">
-        <v>381977.21875</v>
+        <v>143608.765625</v>
       </c>
       <c r="L9">
         <v>47946.57421875</v>
@@ -3584,7 +3584,7 @@
         <v>262476.4375</v>
       </c>
       <c r="K10">
-        <v>434009.59375</v>
+        <v>369335.53125</v>
       </c>
       <c r="L10">
         <v>93781.6484375</v>
@@ -3637,7 +3637,7 @@
         <v>198991.015625</v>
       </c>
       <c r="K11">
-        <v>531486.5625</v>
+        <v>579167.1875</v>
       </c>
       <c r="L11">
         <v>47946.57421875</v>
@@ -3690,7 +3690,7 @@
         <v>189197.625</v>
       </c>
       <c r="K12">
-        <v>782335.8125</v>
+        <v>680915.25</v>
       </c>
       <c r="L12">
         <v>124596.4921875</v>
@@ -3743,7 +3743,7 @@
         <v>210810.75</v>
       </c>
       <c r="K13">
-        <v>930828.9375</v>
+        <v>563002.5625</v>
       </c>
       <c r="L13">
         <v>-0.0001103652029996738</v>
@@ -3796,7 +3796,7 @@
         <v>206693.53125</v>
       </c>
       <c r="K14">
-        <v>735544</v>
+        <v>459711.125</v>
       </c>
       <c r="L14">
         <v>47946.57421875</v>
@@ -3849,7 +3849,7 @@
         <v>158348.71875</v>
       </c>
       <c r="K15">
-        <v>568506.1875</v>
+        <v>365709.21875</v>
       </c>
       <c r="L15">
         <v>3869.2529296875</v>
@@ -3902,7 +3902,7 @@
         <v>135270.765625</v>
       </c>
       <c r="K16">
-        <v>682444.125</v>
+        <v>376412.375</v>
       </c>
       <c r="L16">
         <v>17175.771484375</v>
@@ -3955,7 +3955,7 @@
         <v>159849.96875</v>
       </c>
       <c r="K17">
-        <v>913392.6875</v>
+        <v>613153.875</v>
       </c>
       <c r="L17">
         <v>47946.57421875</v>
@@ -4008,7 +4008,7 @@
         <v>176548.65625</v>
       </c>
       <c r="K18">
-        <v>1088782.375</v>
+        <v>926017.625</v>
       </c>
       <c r="L18">
         <v>17175.771484375</v>
@@ -4061,7 +4061,7 @@
         <v>156447.125</v>
       </c>
       <c r="K19">
-        <v>1264172.25</v>
+        <v>1238881.875</v>
       </c>
       <c r="L19">
         <v>17443.666015625</v>
@@ -4114,7 +4114,7 @@
         <v>154546.125</v>
       </c>
       <c r="K20">
-        <v>1538455.625</v>
+        <v>1415885.375</v>
       </c>
       <c r="L20">
         <v>47946.57421875</v>
@@ -4167,7 +4167,7 @@
         <v>151969.703125</v>
       </c>
       <c r="K21">
-        <v>1684936.625</v>
+        <v>1491794.75</v>
       </c>
       <c r="L21">
         <v>17175.771484375</v>
@@ -4220,7 +4220,7 @@
         <v>229889.515625</v>
       </c>
       <c r="K22">
-        <v>1914364.875</v>
+        <v>1837279.5</v>
       </c>
       <c r="L22">
         <v>17443.666015625</v>
@@ -4273,7 +4273,7 @@
         <v>251049.296875</v>
       </c>
       <c r="K23">
-        <v>2153277.5</v>
+        <v>2211318.75</v>
       </c>
       <c r="L23">
         <v>17443.666015625</v>
@@ -4326,7 +4326,7 @@
         <v>259536.40625</v>
       </c>
       <c r="K24">
-        <v>2320121</v>
+        <v>2143377.5</v>
       </c>
       <c r="L24">
         <v>47946.57421875</v>
@@ -4379,7 +4379,7 @@
         <v>301520.46875</v>
       </c>
       <c r="K25">
-        <v>2744377.5</v>
+        <v>2244175</v>
       </c>
       <c r="L25">
         <v>93232.3671875</v>
@@ -4432,7 +4432,7 @@
         <v>320801.625</v>
       </c>
       <c r="K26">
-        <v>3096892.5</v>
+        <v>2674839.5</v>
       </c>
       <c r="L26">
         <v>47946.57421875</v>
@@ -4485,7 +4485,7 @@
         <v>360501.90625</v>
       </c>
       <c r="K27">
-        <v>3411825.75</v>
+        <v>3181676</v>
       </c>
       <c r="L27">
         <v>17175.771484375</v>
@@ -4538,7 +4538,7 @@
         <v>370387.78125</v>
       </c>
       <c r="K28">
-        <v>3704341.25</v>
+        <v>3447464.5</v>
       </c>
       <c r="L28">
         <v>3869.2529296875</v>
@@ -4591,7 +4591,7 @@
         <v>363945.4375</v>
       </c>
       <c r="K29">
-        <v>4020140</v>
+        <v>3656334.5</v>
       </c>
       <c r="L29">
         <v>47946.57421875</v>
@@ -4644,7 +4644,7 @@
         <v>357227.84375</v>
       </c>
       <c r="K30">
-        <v>4501229.5</v>
+        <v>4016953</v>
       </c>
       <c r="L30">
         <v>-0.0001103652029996738</v>
@@ -4697,7 +4697,7 @@
         <v>431881</v>
       </c>
       <c r="K31">
-        <v>5061269</v>
+        <v>4448153.5</v>
       </c>
       <c r="L31">
         <v>47946.57421875</v>
@@ -4750,7 +4750,7 @@
         <v>393583.59375</v>
       </c>
       <c r="K32">
-        <v>5586601</v>
+        <v>4891523</v>
       </c>
       <c r="L32">
         <v>13.33463096618652</v>
@@ -4803,7 +4803,7 @@
         <v>551179</v>
       </c>
       <c r="K33">
-        <v>5872182</v>
+        <v>5125827.5</v>
       </c>
       <c r="L33">
         <v>17175.771484375</v>
@@ -4856,7 +4856,7 @@
         <v>542963.4375</v>
       </c>
       <c r="K34">
-        <v>5927296</v>
+        <v>5156400</v>
       </c>
       <c r="L34">
         <v>47946.57421875</v>
@@ -5097,184 +5097,184 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>95821187144.75378</v>
+        <v>73063682130.62874</v>
       </c>
       <c r="C9">
-        <v>309549.9751974692</v>
+        <v>270302.9451016558</v>
       </c>
       <c r="D9">
-        <v>0.7741063798637723</v>
+        <v>0.7131866475632943</v>
       </c>
       <c r="E9">
-        <v>291184.850484566</v>
+        <v>216228.90625</v>
       </c>
       <c r="F9">
-        <v>0.8766523831960681</v>
+        <v>0.6689378595974781</v>
       </c>
       <c r="G9">
-        <v>268353.0647736827</v>
+        <v>217229.578125</v>
       </c>
       <c r="H9">
-        <v>0.8566500010341467</v>
+        <v>0.5681705607700962</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>94863155279.52361</v>
+        <v>95821187144.75378</v>
       </c>
       <c r="C10">
-        <v>307998.6286974726</v>
+        <v>309549.9751974692</v>
       </c>
       <c r="D10">
-        <v>0.7565672642363895</v>
+        <v>0.7741063798637723</v>
       </c>
       <c r="E10">
-        <v>289135.9638270825</v>
+        <v>291184.850484566</v>
       </c>
       <c r="F10">
-        <v>0.8683665439504349</v>
+        <v>0.8766523831960681</v>
       </c>
       <c r="G10">
-        <v>262880.0584843064</v>
+        <v>268353.0647736827</v>
       </c>
       <c r="H10">
-        <v>0.8654419066231005</v>
+        <v>0.8566500010341467</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>96819238747.43153</v>
+        <v>94863155279.52361</v>
       </c>
       <c r="C11">
-        <v>311157.9000241381</v>
+        <v>307998.6286974726</v>
       </c>
       <c r="D11">
-        <v>0.7837495471330569</v>
+        <v>0.7565672642363895</v>
       </c>
       <c r="E11">
-        <v>292782.5996700166</v>
+        <v>289135.9638270825</v>
       </c>
       <c r="F11">
-        <v>0.8816186213657211</v>
+        <v>0.8683665439504349</v>
       </c>
       <c r="G11">
-        <v>268315.423828125</v>
+        <v>262880.0584843064</v>
       </c>
       <c r="H11">
-        <v>0.8567028746289769</v>
+        <v>0.8654419066231005</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>96472560558.72404</v>
+        <v>96819238747.43153</v>
       </c>
       <c r="C12">
-        <v>310600.3228567608</v>
+        <v>311157.9000241381</v>
       </c>
       <c r="D12">
-        <v>0.7835993633377787</v>
+        <v>0.7837495471330569</v>
       </c>
       <c r="E12">
-        <v>292712.4448686925</v>
+        <v>292782.5996700166</v>
       </c>
       <c r="F12">
-        <v>0.8820700983753486</v>
+        <v>0.8816186213657211</v>
       </c>
       <c r="G12">
-        <v>269039.1078503163</v>
+        <v>268315.423828125</v>
       </c>
       <c r="H12">
-        <v>0.8689364635037147</v>
+        <v>0.8567028746289769</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>97797812495.75377</v>
+        <v>96472560558.72404</v>
       </c>
       <c r="C13">
-        <v>312726.4179690513</v>
+        <v>310600.3228567608</v>
       </c>
       <c r="D13">
-        <v>1.04873454641463</v>
+        <v>0.7835993633377787</v>
       </c>
       <c r="E13">
-        <v>290794.69921875</v>
+        <v>292712.4448686925</v>
       </c>
       <c r="F13">
-        <v>0.922056813396531</v>
+        <v>0.8820700983753486</v>
       </c>
       <c r="G13">
-        <v>269212.125</v>
+        <v>269039.1078503163</v>
       </c>
       <c r="H13">
-        <v>0.8448859029904434</v>
+        <v>0.8689364635037147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>553062051953.749</v>
+        <v>97797812495.75377</v>
       </c>
       <c r="C14">
-        <v>743681.4183195308</v>
+        <v>312726.4179690513</v>
       </c>
       <c r="D14">
-        <v>6.163004371792684</v>
+        <v>1.04873454641463</v>
       </c>
       <c r="E14">
-        <v>598311.7411397299</v>
+        <v>290794.69921875</v>
       </c>
       <c r="F14">
-        <v>1.918268965698092</v>
+        <v>0.922056813396531</v>
       </c>
       <c r="G14">
-        <v>509004.71875</v>
+        <v>269212.125</v>
       </c>
       <c r="H14">
-        <v>1.359445219410745</v>
+        <v>0.8448859029904434</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>929691672260.4388</v>
+        <v>553062051953.749</v>
       </c>
       <c r="C15">
-        <v>964205.2023612187</v>
+        <v>743681.4183195308</v>
       </c>
       <c r="D15">
-        <v>11.16851123600244</v>
+        <v>6.163004371792684</v>
       </c>
       <c r="E15">
-        <v>712138.2892456055</v>
+        <v>598311.7411397299</v>
       </c>
       <c r="F15">
-        <v>2.323657744228003</v>
+        <v>1.918268965698092</v>
       </c>
       <c r="G15">
-        <v>339203.4584960938</v>
+        <v>509004.71875</v>
       </c>
       <c r="H15">
-        <v>1.04527323812258</v>
+        <v>1.359445219410745</v>
       </c>
     </row>
   </sheetData>
@@ -5322,25 +5322,25 @@
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5375,25 +5375,25 @@
         <v>182682.671875</v>
       </c>
       <c r="K2">
+        <v>376295.1875</v>
+      </c>
+      <c r="L2">
         <v>52629.39965911176</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>48889.56460206227</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>52628.421875</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>50912.50268977389</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>380924.3125</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1528667.5</v>
-      </c>
-      <c r="Q2">
-        <v>-2787.313720703125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5428,25 +5428,25 @@
         <v>166415.609375</v>
       </c>
       <c r="K3">
+        <v>353160.9375</v>
+      </c>
+      <c r="L3">
         <v>62818.23994872315</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>58967.53195235646</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>62824.4921875</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>66171.72629936732</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>309507.09375</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-362374.40625</v>
-      </c>
-      <c r="Q3">
-        <v>24418.953125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5481,25 +5481,25 @@
         <v>204390.46875</v>
       </c>
       <c r="K4">
+        <v>335391.0625</v>
+      </c>
+      <c r="L4">
         <v>40997.84494167498</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>32264.35107903058</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>40960.56640625</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>37222.60897835496</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>570423.5</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-57280.0625</v>
-      </c>
-      <c r="Q4">
-        <v>45465.06640625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5534,25 +5534,25 @@
         <v>156561.140625</v>
       </c>
       <c r="K5">
+        <v>357770.28125</v>
+      </c>
+      <c r="L5">
         <v>42854.25917718716</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>46337.47899174029</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>42860.2265625</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>39438.05353010018</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>115271.859375</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>265324.5625</v>
-      </c>
-      <c r="Q5">
-        <v>7141.876953125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5587,25 +5587,25 @@
         <v>151753.421875</v>
       </c>
       <c r="K6">
+        <v>602443.75</v>
+      </c>
+      <c r="L6">
         <v>62818.23994872315</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>58967.53195235646</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>62824.4921875</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>66171.72629936732</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>83339.90625</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1267.918823242188</v>
-      </c>
-      <c r="Q6">
-        <v>1706.9326171875</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5640,25 +5640,25 @@
         <v>176584.859375</v>
       </c>
       <c r="K7">
+        <v>609445</v>
+      </c>
+      <c r="L7">
         <v>16.08989702114923</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>22377.328248619</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.0005579670541919768</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2681.058</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>508256.28125</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>965261.8125</v>
-      </c>
-      <c r="Q7">
-        <v>-47163.73046875</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5693,25 +5693,25 @@
         <v>198292.75</v>
       </c>
       <c r="K8">
+        <v>341519.1875</v>
+      </c>
+      <c r="L8">
         <v>19147.03765968383</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>58967.53195235646</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-77.79592895507812</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8508.777709027083</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-74749.65625</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1367287</v>
-      </c>
-      <c r="Q8">
-        <v>-25798.849609375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5746,25 +5746,25 @@
         <v>139261.296875</v>
       </c>
       <c r="K9">
+        <v>349213.4375</v>
+      </c>
+      <c r="L9">
         <v>18716.15842882456</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>15579.33941442009</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>18717.826171875</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>18585.93896150975</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>34511.53125</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>519391.6875</v>
-      </c>
-      <c r="Q9">
-        <v>419037.65625</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5799,25 +5799,25 @@
         <v>103624.3359375</v>
       </c>
       <c r="K10">
+        <v>663766.3125</v>
+      </c>
+      <c r="L10">
         <v>-11.74558748782874</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>22377.328248619</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.0002785862307064235</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>510065.25</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>953052.375</v>
-      </c>
-      <c r="Q10">
-        <v>1047955.25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5852,25 +5852,25 @@
         <v>150132.484375</v>
       </c>
       <c r="K11">
+        <v>880884.4375</v>
+      </c>
+      <c r="L11">
         <v>62818.23994872315</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>58967.53195235646</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>62824.4921875</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>66171.72629936732</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>51459.21875</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>264247.96875</v>
-      </c>
-      <c r="Q11">
-        <v>1600007.125</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5905,25 +5905,25 @@
         <v>152686.078125</v>
       </c>
       <c r="K12">
+        <v>599103.875</v>
+      </c>
+      <c r="L12">
         <v>64829.63050391144</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32264.35107903058</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>64898.66015625</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>55155.04011904761</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4349.3125</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>559702.625</v>
-      </c>
-      <c r="Q12">
-        <v>1944674.375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5958,25 +5958,25 @@
         <v>132249.078125</v>
       </c>
       <c r="K13">
+        <v>425524.28125</v>
+      </c>
+      <c r="L13">
         <v>52629.39965911176</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>48889.56460206227</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>52628.421875</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>50912.50268977389</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-319243.3125</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-1003228.875</v>
-      </c>
-      <c r="Q13">
-        <v>2566465</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6011,25 +6011,25 @@
         <v>105919.8046875</v>
       </c>
       <c r="K14">
+        <v>403630.125</v>
+      </c>
+      <c r="L14">
         <v>76526.41542075547</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>58967.53195235646</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>76547.8046875</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>82411.11782861424</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-77898.25</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-849416.25</v>
-      </c>
-      <c r="Q14">
-        <v>3200567.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6064,25 +6064,25 @@
         <v>87229.5</v>
       </c>
       <c r="K15">
+        <v>452808.5625</v>
+      </c>
+      <c r="L15">
         <v>18602.22152580252</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>58967.53195235646</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>338.1966857910156</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>6924.128734668109</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>695932.625</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1011581.6875</v>
-      </c>
-      <c r="Q15">
-        <v>3885572.75</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6117,25 +6117,25 @@
         <v>34189.8359375</v>
       </c>
       <c r="K16">
+        <v>1270772.125</v>
+      </c>
+      <c r="L16">
         <v>-11.74558748782874</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22377.328248619</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-0.0002785862307064235</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>127778.1875</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>370914.375</v>
-      </c>
-      <c r="Q16">
-        <v>5036609</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6170,25 +6170,25 @@
         <v>56370.05078125</v>
       </c>
       <c r="K17">
+        <v>1963870.625</v>
+      </c>
+      <c r="L17">
         <v>80.48300002454926</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15579.33941442009</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.768541378372902E-07</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1729.496785714286</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-24588.21875</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>938265.5</v>
-      </c>
-      <c r="Q17">
-        <v>4797867</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6223,25 +6223,25 @@
         <v>84517.71875</v>
       </c>
       <c r="K18">
+        <v>2139101</v>
+      </c>
+      <c r="L18">
         <v>40997.84494167498</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>32264.35107903058</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>40960.56640625</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>37222.60897835496</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>174034.96875</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>70922.546875</v>
-      </c>
-      <c r="Q18">
-        <v>4145634</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6276,25 +6276,25 @@
         <v>67043.859375</v>
       </c>
       <c r="K19">
+        <v>2356930.25</v>
+      </c>
+      <c r="L19">
         <v>-1609.57015224982</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>32264.35107903058</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-1135.36669921875</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1356.9075</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>163104.1875</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>312885.03125</v>
-      </c>
-      <c r="Q19">
-        <v>3504424.25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6329,25 +6329,25 @@
         <v>113432.515625</v>
       </c>
       <c r="K20">
+        <v>3018884.25</v>
+      </c>
+      <c r="L20">
         <v>1.558196383346512</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>58967.53195235646</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.64285863522673E-05</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>766.515</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>288248.59375</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1729376.625</v>
-      </c>
-      <c r="Q20">
-        <v>3245120</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6382,25 +6382,25 @@
         <v>107228.9921875</v>
       </c>
       <c r="K21">
+        <v>3754800.25</v>
+      </c>
+      <c r="L21">
         <v>52629.39965911176</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>48889.56460206227</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>52628.421875</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>50912.50268977389</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>120723.515625</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1809840.25</v>
-      </c>
-      <c r="Q21">
-        <v>4267078.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6435,25 +6435,25 @@
         <v>189939.125</v>
       </c>
       <c r="K22">
+        <v>3797465</v>
+      </c>
+      <c r="L22">
         <v>76526.41542075547</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>58967.53195235646</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>76547.8046875</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>82411.11782861424</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>485982.84375</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>839540.4375</v>
-      </c>
-      <c r="Q22">
-        <v>4930363</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6488,25 +6488,25 @@
         <v>239613.34375</v>
       </c>
       <c r="K23">
+        <v>3756959.5</v>
+      </c>
+      <c r="L23">
         <v>27.97115007411776</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>58967.53195235646</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-1.034033266478218E-05</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>7892.24</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>210166.859375</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2707478.75</v>
-      </c>
-      <c r="Q23">
-        <v>5526545.5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6541,25 +6541,25 @@
         <v>291069.09375</v>
       </c>
       <c r="K24">
+        <v>4036848</v>
+      </c>
+      <c r="L24">
         <v>52629.39965911176</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>48889.56460206227</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>52628.421875</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>50912.50268977389</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-150188.96875</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2402083.25</v>
-      </c>
-      <c r="Q24">
-        <v>6249920.5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6594,25 +6594,25 @@
         <v>249469.484375</v>
       </c>
       <c r="K25">
+        <v>4443902.5</v>
+      </c>
+      <c r="L25">
         <v>40997.84494167498</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>32264.35107903058</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>40960.56640625</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>37222.60897835496</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>56311.984375</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2039177.625</v>
-      </c>
-      <c r="Q25">
-        <v>6453812</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6647,25 +6647,25 @@
         <v>257572.03125</v>
       </c>
       <c r="K26">
+        <v>5007166.5</v>
+      </c>
+      <c r="L26">
         <v>18716.15842882456</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15579.33941442009</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>18717.826171875</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>18585.93896150975</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>514734.78125</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2690333</v>
-      </c>
-      <c r="Q26">
-        <v>6642338.5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6700,25 +6700,25 @@
         <v>288548.65625</v>
       </c>
       <c r="K27">
+        <v>5608663.5</v>
+      </c>
+      <c r="L27">
         <v>5817.541429395009</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>32264.35107903058</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-516.5509033203125</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2684.055222222222</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>74808.984375</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3578966.5</v>
-      </c>
-      <c r="Q27">
-        <v>6887267.5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6753,25 +6753,25 @@
         <v>262176.25</v>
       </c>
       <c r="K28">
+        <v>5990050.5</v>
+      </c>
+      <c r="L28">
         <v>42854.25917718716</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>46337.47899174029</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>42860.2265625</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>39438.05353010018</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>486647.9375</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1692808</v>
-      </c>
-      <c r="Q28">
-        <v>6903684.5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6806,25 +6806,25 @@
         <v>234873.171875</v>
       </c>
       <c r="K29">
+        <v>6158360.5</v>
+      </c>
+      <c r="L29">
         <v>80.48300002454926</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>15579.33941442009</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.768541378372902E-07</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1729.496785714286</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>113969.234375</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2302938.5</v>
-      </c>
-      <c r="Q29">
-        <v>7316460</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6859,25 +6859,25 @@
         <v>246554.015625</v>
       </c>
       <c r="K30">
+        <v>6071417</v>
+      </c>
+      <c r="L30">
         <v>52629.39965911176</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>48889.56460206227</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>52628.421875</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>50912.50268977389</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>173708.59375</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2985876.5</v>
-      </c>
-      <c r="Q30">
-        <v>7867558</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6912,25 +6912,25 @@
         <v>309172.09375</v>
       </c>
       <c r="K31">
+        <v>5864740</v>
+      </c>
+      <c r="L31">
         <v>18716.15842882456</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>15579.33941442009</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>18717.826171875</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>18585.93896150975</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-773022.5625</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2258933</v>
-      </c>
-      <c r="Q31">
-        <v>8360980</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6965,25 +6965,25 @@
         <v>250254.0625</v>
       </c>
       <c r="K32">
+        <v>6190669</v>
+      </c>
+      <c r="L32">
         <v>13754.15985535965</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>58967.53195235646</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-1.034033266478218E-05</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>12208.7375</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>548549.5</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>1956805.75</v>
-      </c>
-      <c r="Q32">
-        <v>9082656</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7018,25 +7018,25 @@
         <v>343932.75</v>
       </c>
       <c r="K33">
+        <v>6800963</v>
+      </c>
+      <c r="L33">
         <v>52629.39965911176</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>48889.56460206227</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>52628.421875</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>50912.50268977389</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>547012.875</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2263124.75</v>
-      </c>
-      <c r="Q33">
-        <v>9588096</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7071,25 +7071,25 @@
         <v>397025.8125</v>
       </c>
       <c r="K34">
+        <v>7047105</v>
+      </c>
+      <c r="L34">
         <v>62818.23994872315</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>58967.53195235646</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>62824.4921875</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>66171.72629936732</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>11463.703125</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3377862.25</v>
-      </c>
-      <c r="Q34">
-        <v>9699607</v>
       </c>
     </row>
   </sheetData>
